--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>CaseNumber</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -34,7 +37,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>20161219_15:37:05</t>
+    <t>TCS_001</t>
+  </si>
+  <si>
+    <t>20161219_16:33:28</t>
   </si>
   <si>
     <t>Add_RoomType</t>
@@ -53,6 +59,33 @@
   </si>
   <si>
     <t>删除成功!</t>
+  </si>
+  <si>
+    <t>20161219_16:33:43</t>
+  </si>
+  <si>
+    <t>Modify_RoomType</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
+    <t>20161219_16:35:40</t>
+  </si>
+  <si>
+    <t>Search_All_RoomType</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>20161219_16:51:58</t>
+  </si>
+  <si>
+    <t>TCS_002</t>
+  </si>
+  <si>
+    <t>20161219_16:52:37</t>
   </si>
 </sst>
 </file>
@@ -412,23 +445,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="19.375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="21.625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="12.875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="10.25"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="7.75"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="14.375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="19.375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="21.625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="12.875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="10.25"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="7.75"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" spans="1:6">
+    <row customHeight="1" ht="16.5" r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,65 +481,373 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>200</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" t="n">
+        <v>200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>200</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D4" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D9" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D10" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>200</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>200</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>200</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>200</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>200</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>200</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>20161219_16:52:37</t>
+  </si>
+  <si>
+    <t>TCS003</t>
+  </si>
+  <si>
+    <t>20161220_18:02:23</t>
+  </si>
+  <si>
+    <t>房间号KVS4yIXff0已存在</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -850,6 +859,185 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>200</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>409</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s"/>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>TCS_001</t>
-  </si>
-  <si>
-    <t>20161219_16:33:28</t>
+    <t>TCS001</t>
+  </si>
+  <si>
+    <t>20170103_17:56:34</t>
   </si>
   <si>
     <t>Add_RoomType</t>
@@ -55,46 +55,31 @@
     <t>RoomType_Status</t>
   </si>
   <si>
+    <t>Modify_RoomType</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
     <t>Del_RoomType</t>
   </si>
   <si>
     <t>删除成功!</t>
   </si>
   <si>
-    <t>20161219_16:33:43</t>
-  </si>
-  <si>
-    <t>Modify_RoomType</t>
-  </si>
-  <si>
-    <t>修改成功</t>
-  </si>
-  <si>
-    <t>20161219_16:35:40</t>
+    <t>Failed</t>
   </si>
   <si>
     <t>Search_All_RoomType</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>20161219_16:51:58</t>
-  </si>
-  <si>
-    <t>TCS_002</t>
-  </si>
-  <si>
-    <t>20161219_16:52:37</t>
-  </si>
-  <si>
-    <t>TCS003</t>
-  </si>
-  <si>
-    <t>20161220_18:02:23</t>
-  </si>
-  <si>
-    <t>房间号KVS4yIXff0已存在</t>
+    <t>TCS002</t>
+  </si>
+  <si>
+    <t>20170103_17:56:39</t>
+  </si>
+  <si>
+    <t>房型不存在~</t>
   </si>
 </sst>
 </file>
@@ -454,10 +439,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -467,7 +452,7 @@
     <col bestFit="1" customWidth="1" max="3" min="3" width="21.625"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="15.5"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="12.875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="10.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="24.125"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="7.75"/>
   </cols>
   <sheetData>
@@ -568,11 +553,11 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="n">
         <v>200</v>
       </c>
@@ -580,7 +565,7 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -591,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -603,10 +588,10 @@
         <v>200</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -614,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>200</v>
@@ -625,22 +610,19 @@
       <c r="E7" t="n">
         <v>200</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>200</v>
@@ -648,8 +630,8 @@
       <c r="E8" t="n">
         <v>200</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -657,13 +639,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>200</v>
@@ -671,8 +653,8 @@
       <c r="E9" t="n">
         <v>200</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -680,13 +662,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
@@ -694,8 +676,8 @@
       <c r="E10" t="n">
         <v>200</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -703,13 +685,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
@@ -717,325 +699,55 @@
       <c r="E11" t="n">
         <v>200</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>-2002</v>
       </c>
       <c r="E12" t="n">
-        <v>200</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
+        <v>409</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" t="n">
         <v>200</v>
       </c>
       <c r="E13" t="n">
         <v>200</v>
       </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>200</v>
-      </c>
-      <c r="E14" t="n">
-        <v>200</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>200</v>
-      </c>
-      <c r="E15" t="n">
-        <v>200</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="n">
-        <v>200</v>
-      </c>
-      <c r="E16" t="n">
-        <v>200</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="n">
-        <v>200</v>
-      </c>
-      <c r="E17" t="n">
-        <v>200</v>
-      </c>
-      <c r="F17" t="s">
         <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>200</v>
-      </c>
-      <c r="E18" t="n">
-        <v>200</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="n">
-        <v>200</v>
-      </c>
-      <c r="E19" t="n">
-        <v>200</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>200</v>
-      </c>
-      <c r="E20" t="n">
-        <v>200</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>409</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="n">
-        <v>200</v>
-      </c>
-      <c r="E22" t="n">
-        <v>200</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>200</v>
-      </c>
-      <c r="E23" t="n">
-        <v>200</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="n">
-        <v>200</v>
-      </c>
-      <c r="E24" t="n">
-        <v>200</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="n">
-        <v>200</v>
-      </c>
-      <c r="E25" t="n">
-        <v>200</v>
-      </c>
-      <c r="F25" t="s"/>
-      <c r="G25" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>API Name</t>
+    <t>API</t>
   </si>
   <si>
     <t>BusinessCode</t>
@@ -34,13 +34,13 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Result</t>
+    <t>TestResult</t>
   </si>
   <si>
     <t>TCS001</t>
   </si>
   <si>
-    <t>20170103_17:56:34</t>
+    <t>20170106_09:57:52</t>
   </si>
   <si>
     <t>Add_RoomType</t>
@@ -73,13 +73,37 @@
     <t>Search_All_RoomType</t>
   </si>
   <si>
+    <t>20170106_10:03:58</t>
+  </si>
+  <si>
     <t>TCS002</t>
   </si>
   <si>
-    <t>20170103_17:56:39</t>
+    <t>20170106_10:04:06</t>
   </si>
   <si>
     <t>房型不存在~</t>
+  </si>
+  <si>
+    <t>TCS_001</t>
+  </si>
+  <si>
+    <t>20170106_13:45:34</t>
+  </si>
+  <si>
+    <t>BatchAdd_RoomType</t>
+  </si>
+  <si>
+    <t>该房间存在占房,不能删除!</t>
+  </si>
+  <si>
+    <t>20170106_13:46:34</t>
+  </si>
+  <si>
+    <t>TCS004</t>
+  </si>
+  <si>
+    <t>20170106_13:59:10</t>
   </si>
 </sst>
 </file>
@@ -137,10 +161,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +466,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -451,12 +478,12 @@
     <col bestFit="1" customWidth="1" max="2" min="2" width="19.375"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="21.625"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="15.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="12.875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="24.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="7.75"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="12"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="14.625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="11.25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" spans="1:7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="1" s="2" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,10 +643,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -639,10 +666,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -662,13 +689,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
@@ -677,7 +704,7 @@
         <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -685,13 +712,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
@@ -699,31 +726,31 @@
       <c r="E11" t="n">
         <v>200</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>-2002</v>
+        <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>409</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
+        <v>200</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -731,10 +758,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -745,8 +772,211 @@
       <c r="E13" t="n">
         <v>200</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>200</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>200</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E18" t="n">
+        <v>409</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2025</v>
+      </c>
+      <c r="E20" t="n">
+        <v>409</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2025</v>
+      </c>
+      <c r="E21" t="n">
+        <v>409</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2025</v>
+      </c>
+      <c r="E22" t="n">
+        <v>409</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
         <v>17</v>
       </c>
     </row>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>20170106_13:59:10</t>
+  </si>
+  <si>
+    <t>20170207_15:09:54</t>
+  </si>
+  <si>
+    <t>20170208_10:12:22</t>
+  </si>
+  <si>
+    <t>20170208_10:12:31</t>
+  </si>
+  <si>
+    <t>20170208_10:13:41</t>
+  </si>
+  <si>
+    <t>20170208_10:24:51</t>
+  </si>
+  <si>
+    <t>20170208_10:26:59</t>
+  </si>
+  <si>
+    <t>20170208_10:27:35</t>
+  </si>
+  <si>
+    <t>20170208_10:28:07</t>
   </si>
 </sst>
 </file>
@@ -466,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -980,6 +1004,538 @@
         <v>17</v>
       </c>
     </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>200</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>200</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>200</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="n">
+        <v>200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>200</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="n">
+        <v>200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>200</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="n">
+        <v>200</v>
+      </c>
+      <c r="E34" t="n">
+        <v>200</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>200</v>
+      </c>
+      <c r="E35" t="n">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="n">
+        <v>200</v>
+      </c>
+      <c r="E36" t="n">
+        <v>200</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="n">
+        <v>200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>200</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="n">
+        <v>200</v>
+      </c>
+      <c r="E38" t="n">
+        <v>200</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="n">
+        <v>200</v>
+      </c>
+      <c r="E39" t="n">
+        <v>200</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="n">
+        <v>200</v>
+      </c>
+      <c r="E40" t="n">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>200</v>
+      </c>
+      <c r="E41" t="n">
+        <v>200</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="n">
+        <v>200</v>
+      </c>
+      <c r="E42" t="n">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>200</v>
+      </c>
+      <c r="E43" t="n">
+        <v>200</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="n">
+        <v>200</v>
+      </c>
+      <c r="E44" t="n">
+        <v>200</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="n">
+        <v>200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>200</v>
+      </c>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -37,22 +37,70 @@
     <t>TestResult</t>
   </si>
   <si>
+    <t>TCS003</t>
+  </si>
+  <si>
+    <t>20170209_17:03:19</t>
+  </si>
+  <si>
+    <t>Add_RoomType</t>
+  </si>
+  <si>
+    <t>添加成功</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>RoomType_Status</t>
+  </si>
+  <si>
+    <t>房间号TKT0N9TJU2已存在</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Del_RoomType</t>
+  </si>
+  <si>
+    <t>删除成功!</t>
+  </si>
+  <si>
+    <t>Search_All_RoomType</t>
+  </si>
+  <si>
+    <t>20170209_17:04:53</t>
+  </si>
+  <si>
+    <t>房间号IQ8VMKEERI已存在</t>
+  </si>
+  <si>
+    <t>20170209_17:11:56</t>
+  </si>
+  <si>
+    <t>房间号VJZXPCAONR已存在</t>
+  </si>
+  <si>
+    <t>20170209_17:26:58</t>
+  </si>
+  <si>
+    <t>房间号OC2BDSPQER已存在</t>
+  </si>
+  <si>
+    <t>Test001</t>
+  </si>
+  <si>
+    <t>20170215_13:09:44</t>
+  </si>
+  <si>
+    <t>20170215_14:13:02</t>
+  </si>
+  <si>
     <t>TCS001</t>
   </si>
   <si>
-    <t>20170106_09:57:52</t>
-  </si>
-  <si>
-    <t>Add_RoomType</t>
-  </si>
-  <si>
-    <t>添加成功</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>RoomType_Status</t>
+    <t>20170215_14:14:59</t>
   </si>
   <si>
     <t>Modify_RoomType</t>
@@ -61,73 +109,40 @@
     <t>修改成功</t>
   </si>
   <si>
-    <t>Del_RoomType</t>
-  </si>
-  <si>
-    <t>删除成功!</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Search_All_RoomType</t>
-  </si>
-  <si>
-    <t>20170106_10:03:58</t>
-  </si>
-  <si>
-    <t>TCS002</t>
-  </si>
-  <si>
-    <t>20170106_10:04:06</t>
-  </si>
-  <si>
-    <t>房型不存在~</t>
-  </si>
-  <si>
-    <t>TCS_001</t>
-  </si>
-  <si>
-    <t>20170106_13:45:34</t>
-  </si>
-  <si>
-    <t>BatchAdd_RoomType</t>
-  </si>
-  <si>
-    <t>该房间存在占房,不能删除!</t>
-  </si>
-  <si>
-    <t>20170106_13:46:34</t>
-  </si>
-  <si>
-    <t>TCS004</t>
-  </si>
-  <si>
-    <t>20170106_13:59:10</t>
-  </si>
-  <si>
-    <t>20170207_15:09:54</t>
-  </si>
-  <si>
-    <t>20170208_10:12:22</t>
-  </si>
-  <si>
-    <t>20170208_10:12:31</t>
-  </si>
-  <si>
-    <t>20170208_10:13:41</t>
-  </si>
-  <si>
-    <t>20170208_10:24:51</t>
-  </si>
-  <si>
-    <t>20170208_10:26:59</t>
-  </si>
-  <si>
-    <t>20170208_10:27:35</t>
-  </si>
-  <si>
-    <t>20170208_10:28:07</t>
+    <t>20170215_14:28:21</t>
+  </si>
+  <si>
+    <t>20170217_15:37:48</t>
+  </si>
+  <si>
+    <t>20170217_15:48:16</t>
+  </si>
+  <si>
+    <t>20170217_15:49:40</t>
+  </si>
+  <si>
+    <t>20170217_16:45:32</t>
+  </si>
+  <si>
+    <t>20170217_16:50:00</t>
+  </si>
+  <si>
+    <t>20170217_16:50:57</t>
+  </si>
+  <si>
+    <t>20170217_16:51:41</t>
+  </si>
+  <si>
+    <t>20170217_16:52:03</t>
+  </si>
+  <si>
+    <t>20170217_16:52:47</t>
+  </si>
+  <si>
+    <t>20170217_16:54:54</t>
+  </si>
+  <si>
+    <t>20170217_16:57:49</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -584,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -593,7 +608,7 @@
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -607,19 +622,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>200</v>
+        <v>-2000</v>
       </c>
       <c r="E5" t="n">
-        <v>200</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -630,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
@@ -638,11 +653,11 @@
       <c r="E6" t="n">
         <v>200</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -653,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>200</v>
@@ -661,8 +676,11 @@
       <c r="E7" t="n">
         <v>200</v>
       </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -670,19 +688,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>200</v>
       </c>
       <c r="E8" t="n">
         <v>200</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -693,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>200</v>
@@ -704,8 +719,8 @@
       <c r="E9" t="n">
         <v>200</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -716,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
@@ -727,8 +742,8 @@
       <c r="E10" t="n">
         <v>200</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -739,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
@@ -751,7 +766,7 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -762,22 +777,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>409</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" t="n">
-        <v>200</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -785,10 +800,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>200</v>
@@ -796,16 +811,19 @@
       <c r="E13" t="n">
         <v>200</v>
       </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -825,22 +843,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
         <v>200</v>
       </c>
       <c r="E15" t="n">
         <v>200</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -848,13 +863,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>200</v>
@@ -863,7 +878,7 @@
         <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -871,10 +886,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -886,130 +901,130 @@
         <v>200</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>-2002</v>
+        <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>409</v>
+      </c>
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="n">
-        <v>200</v>
-      </c>
-      <c r="E19" t="n">
-        <v>200</v>
-      </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>-2025</v>
+        <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>-2025</v>
+        <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>-2025</v>
+        <v>200</v>
       </c>
       <c r="E22" t="n">
-        <v>409</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1029,19 +1044,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
         <v>200</v>
       </c>
       <c r="E24" t="n">
         <v>200</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1049,10 +1067,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1072,22 +1090,25 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>409</v>
+      </c>
+      <c r="F26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="n">
-        <v>200</v>
-      </c>
-      <c r="E26" t="n">
-        <v>200</v>
-      </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1095,10 +1116,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
         <v>200</v>
@@ -1107,7 +1128,7 @@
         <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1118,10 +1139,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
         <v>200</v>
@@ -1129,8 +1150,8 @@
       <c r="E28" t="n">
         <v>200</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>10</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1141,19 +1162,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
         <v>200</v>
       </c>
       <c r="E29" t="n">
         <v>200</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1161,13 +1179,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
         <v>200</v>
@@ -1175,8 +1193,8 @@
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>10</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1184,13 +1202,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>200</v>
@@ -1199,7 +1217,7 @@
         <v>200</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1207,13 +1225,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>200</v>
@@ -1222,7 +1240,7 @@
         <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -1230,10 +1248,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -1245,21 +1263,21 @@
         <v>200</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
         <v>200</v>
@@ -1267,19 +1285,22 @@
       <c r="E34" t="n">
         <v>200</v>
       </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
         <v>200</v>
@@ -1288,7 +1309,7 @@
         <v>200</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1296,10 +1317,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1311,21 +1332,21 @@
         <v>200</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
         <v>200</v>
@@ -1333,22 +1354,19 @@
       <c r="E37" t="n">
         <v>200</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>200</v>
@@ -1357,7 +1375,7 @@
         <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -1365,10 +1383,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1380,21 +1398,21 @@
         <v>200</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>200</v>
@@ -1402,19 +1420,22 @@
       <c r="E40" t="n">
         <v>200</v>
       </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
         <v>200</v>
@@ -1423,7 +1444,7 @@
         <v>200</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -1431,13 +1452,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
         <v>200</v>
@@ -1445,19 +1466,22 @@
       <c r="E42" t="n">
         <v>200</v>
       </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
         <v>200</v>
@@ -1465,28 +1489,28 @@
       <c r="E43" t="n">
         <v>200</v>
       </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
         <v>200</v>
       </c>
       <c r="E44" t="n">
         <v>200</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -1494,10 +1518,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -1517,23 +1541,434 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>200</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>200</v>
+      </c>
+      <c r="E47" t="n">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>200</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
         <v>37</v>
       </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="n">
-        <v>200</v>
-      </c>
-      <c r="E46" t="n">
-        <v>200</v>
-      </c>
-      <c r="F46" t="s"/>
-      <c r="G46" t="s">
-        <v>11</v>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>200</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>200</v>
+      </c>
+      <c r="E50" t="n">
+        <v>200</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>200</v>
+      </c>
+      <c r="E51" t="n">
+        <v>200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>200</v>
+      </c>
+      <c r="E52" t="n">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="n">
+        <v>200</v>
+      </c>
+      <c r="E53" t="n">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="n">
+        <v>200</v>
+      </c>
+      <c r="E54" t="n">
+        <v>200</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="n">
+        <v>200</v>
+      </c>
+      <c r="E55" t="n">
+        <v>200</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="n">
+        <v>200</v>
+      </c>
+      <c r="E56" t="n">
+        <v>200</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>200</v>
+      </c>
+      <c r="E57" t="n">
+        <v>200</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="n">
+        <v>200</v>
+      </c>
+      <c r="E58" t="n">
+        <v>200</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>200</v>
+      </c>
+      <c r="E59" t="n">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="n">
+        <v>200</v>
+      </c>
+      <c r="E60" t="n">
+        <v>200</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="n">
+        <v>200</v>
+      </c>
+      <c r="E61" t="n">
+        <v>200</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="n">
+        <v>200</v>
+      </c>
+      <c r="E62" t="n">
+        <v>200</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="n">
+        <v>200</v>
+      </c>
+      <c r="E63" t="n">
+        <v>200</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="n">
+        <v>200</v>
+      </c>
+      <c r="E64" t="n">
+        <v>200</v>
+      </c>
+      <c r="F64" t="s"/>
+      <c r="G64" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -37,10 +37,10 @@
     <t>TestResult</t>
   </si>
   <si>
-    <t>TCS003</t>
+    <t>Test001</t>
   </si>
   <si>
-    <t>20170209_17:03:19</t>
+    <t>20170220_14:25:35</t>
   </si>
   <si>
     <t>Add_RoomType</t>
@@ -55,10 +55,10 @@
     <t>RoomType_Status</t>
   </si>
   <si>
-    <t>房间号TKT0N9TJU2已存在</t>
+    <t>Modify_RoomType</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>修改成功</t>
   </si>
   <si>
     <t>Del_RoomType</t>
@@ -67,82 +67,37 @@
     <t>删除成功!</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Search_All_RoomType</t>
   </si>
   <si>
-    <t>20170209_17:04:53</t>
+    <t>20170220_14:33:05</t>
   </si>
   <si>
-    <t>房间号IQ8VMKEERI已存在</t>
+    <t>20170220_14:35:50</t>
   </si>
   <si>
-    <t>20170209_17:11:56</t>
+    <t>20170220_14:36:44</t>
   </si>
   <si>
-    <t>房间号VJZXPCAONR已存在</t>
+    <t>20170220_14:37:16</t>
   </si>
   <si>
-    <t>20170209_17:26:58</t>
+    <t>20170220_14:38:07</t>
   </si>
   <si>
-    <t>房间号OC2BDSPQER已存在</t>
+    <t>20170220_14:38:57</t>
   </si>
   <si>
-    <t>Test001</t>
+    <t>20170220_14:46:16</t>
   </si>
   <si>
-    <t>20170215_13:09:44</t>
+    <t>20170220_14:48:07</t>
   </si>
   <si>
-    <t>20170215_14:13:02</t>
-  </si>
-  <si>
-    <t>TCS001</t>
-  </si>
-  <si>
-    <t>20170215_14:14:59</t>
-  </si>
-  <si>
-    <t>Modify_RoomType</t>
-  </si>
-  <si>
-    <t>修改成功</t>
-  </si>
-  <si>
-    <t>20170215_14:28:21</t>
-  </si>
-  <si>
-    <t>20170217_15:37:48</t>
-  </si>
-  <si>
-    <t>20170217_15:48:16</t>
-  </si>
-  <si>
-    <t>20170217_15:49:40</t>
-  </si>
-  <si>
-    <t>20170217_16:45:32</t>
-  </si>
-  <si>
-    <t>20170217_16:50:00</t>
-  </si>
-  <si>
-    <t>20170217_16:50:57</t>
-  </si>
-  <si>
-    <t>20170217_16:51:41</t>
-  </si>
-  <si>
-    <t>20170217_16:52:03</t>
-  </si>
-  <si>
-    <t>20170217_16:52:47</t>
-  </si>
-  <si>
-    <t>20170217_16:54:54</t>
-  </si>
-  <si>
-    <t>20170217_16:57:49</t>
+    <t>20170220_14:50:11</t>
   </si>
 </sst>
 </file>
@@ -505,10 +460,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -599,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
         <v>200</v>
@@ -608,7 +563,7 @@
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -622,19 +577,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>-2000</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -645,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
         <v>200</v>
@@ -653,11 +608,11 @@
       <c r="E6" t="n">
         <v>200</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
+      <c r="F6" t="b">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -668,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>200</v>
@@ -676,11 +631,8 @@
       <c r="E7" t="n">
         <v>200</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -688,16 +640,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>200</v>
       </c>
       <c r="E8" t="n">
         <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -708,10 +663,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>200</v>
@@ -719,8 +674,8 @@
       <c r="E9" t="n">
         <v>200</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -731,10 +686,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
@@ -742,8 +697,8 @@
       <c r="E10" t="n">
         <v>200</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -754,10 +709,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>200</v>
@@ -766,7 +721,7 @@
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -777,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>-2000</v>
+        <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>409</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
+        <v>200</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -800,22 +755,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="n">
         <v>200</v>
       </c>
       <c r="E13" t="n">
         <v>200</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -823,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -846,16 +798,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
         <v>200</v>
       </c>
       <c r="E15" t="n">
         <v>200</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -869,7 +824,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
         <v>200</v>
@@ -878,7 +833,7 @@
         <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -892,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>200</v>
@@ -900,8 +855,8 @@
       <c r="E17" t="n">
         <v>200</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>16</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -915,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
         <v>200</v>
@@ -923,11 +878,11 @@
       <c r="E18" t="n">
         <v>200</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
+      <c r="F18" t="b">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -938,19 +893,16 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>-2000</v>
+        <v>200</v>
       </c>
       <c r="E19" t="n">
-        <v>409</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -958,10 +910,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>200</v>
@@ -970,7 +922,7 @@
         <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -981,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
         <v>200</v>
@@ -992,8 +944,8 @@
       <c r="E21" t="n">
         <v>200</v>
       </c>
-      <c r="F21" t="s">
-        <v>10</v>
+      <c r="F21" t="b">
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1004,16 +956,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
         <v>200</v>
       </c>
       <c r="E22" t="n">
         <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1024,10 +979,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
         <v>200</v>
@@ -1036,7 +991,7 @@
         <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -1047,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1059,10 +1014,10 @@
         <v>200</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1070,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
         <v>200</v>
@@ -1081,11 +1036,8 @@
       <c r="E25" t="n">
         <v>200</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1093,22 +1045,22 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>-2000</v>
+        <v>200</v>
       </c>
       <c r="E26" t="n">
-        <v>409</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1116,10 +1068,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
         <v>200</v>
@@ -1127,8 +1079,8 @@
       <c r="E27" t="n">
         <v>200</v>
       </c>
-      <c r="F27" t="s">
-        <v>16</v>
+      <c r="F27" t="b">
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1139,10 +1091,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>200</v>
@@ -1151,7 +1103,7 @@
         <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1162,16 +1114,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
         <v>200</v>
       </c>
       <c r="E29" t="n">
         <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1179,13 +1134,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
         <v>200</v>
@@ -1193,22 +1148,22 @@
       <c r="E30" t="n">
         <v>200</v>
       </c>
-      <c r="F30" t="s">
-        <v>10</v>
+      <c r="F30" t="b">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
         <v>200</v>
@@ -1216,19 +1171,16 @@
       <c r="E31" t="n">
         <v>200</v>
       </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1248,10 +1200,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -1271,13 +1223,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
         <v>200</v>
@@ -1286,7 +1238,7 @@
         <v>200</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1294,10 +1246,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -1317,10 +1269,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1335,18 +1287,18 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" t="n">
         <v>200</v>
@@ -1355,15 +1307,15 @@
         <v>200</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1383,10 +1335,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1406,13 +1358,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
         <v>200</v>
@@ -1421,7 +1373,7 @@
         <v>200</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -1429,10 +1381,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -1452,10 +1404,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1470,18 +1422,18 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
         <v>200</v>
@@ -1490,15 +1442,15 @@
         <v>200</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1518,13 +1470,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
         <v>200</v>
@@ -1532,8 +1484,8 @@
       <c r="E45" t="n">
         <v>200</v>
       </c>
-      <c r="F45" t="s">
-        <v>10</v>
+      <c r="F45" t="b">
+        <v>1</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -1541,13 +1493,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" t="n">
         <v>200</v>
@@ -1556,7 +1508,7 @@
         <v>200</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -1564,13 +1516,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
         <v>200</v>
@@ -1579,7 +1531,7 @@
         <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -1587,13 +1539,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
         <v>200</v>
@@ -1601,22 +1553,22 @@
       <c r="E48" t="n">
         <v>200</v>
       </c>
-      <c r="F48" t="s">
-        <v>10</v>
+      <c r="F48" t="b">
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" t="n">
         <v>200</v>
@@ -1624,19 +1576,16 @@
       <c r="E49" t="n">
         <v>200</v>
       </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -1656,13 +1605,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" t="n">
         <v>200</v>
@@ -1670,8 +1619,8 @@
       <c r="E51" t="n">
         <v>200</v>
       </c>
-      <c r="F51" t="s">
-        <v>10</v>
+      <c r="F51" t="b">
+        <v>1</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -1679,13 +1628,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
         <v>200</v>
@@ -1694,7 +1643,7 @@
         <v>200</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -1702,13 +1651,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
         <v>200</v>
@@ -1717,7 +1666,7 @@
         <v>200</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -1725,10 +1674,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -1740,21 +1689,21 @@
         <v>200</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D55" t="n">
         <v>200</v>
@@ -1762,22 +1711,19 @@
       <c r="E55" t="n">
         <v>200</v>
       </c>
-      <c r="F55" t="s">
-        <v>30</v>
-      </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
         <v>200</v>
@@ -1786,7 +1732,7 @@
         <v>200</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -1794,10 +1740,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -1809,21 +1755,21 @@
         <v>200</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
         <v>200</v>
@@ -1831,19 +1777,22 @@
       <c r="E58" t="n">
         <v>200</v>
       </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
         <v>200</v>
@@ -1852,7 +1801,7 @@
         <v>200</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -1860,10 +1809,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -1875,21 +1824,21 @@
         <v>200</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D61" t="n">
         <v>200</v>
@@ -1897,22 +1846,19 @@
       <c r="E61" t="n">
         <v>200</v>
       </c>
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
         <v>200</v>
@@ -1921,7 +1867,7 @@
         <v>200</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
@@ -1929,10 +1875,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
@@ -1944,31 +1890,6850 @@
         <v>200</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="n">
+        <v>200</v>
+      </c>
+      <c r="E64" t="n">
+        <v>200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="n">
+        <v>200</v>
+      </c>
+      <c r="E65" t="n">
+        <v>200</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="n">
+        <v>200</v>
+      </c>
+      <c r="E66" t="n">
+        <v>200</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="n">
+        <v>200</v>
+      </c>
+      <c r="E67" t="n">
+        <v>200</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="n">
+        <v>200</v>
+      </c>
+      <c r="E68" t="n">
+        <v>200</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="n">
+        <v>200</v>
+      </c>
+      <c r="E69" t="n">
+        <v>200</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="n">
+        <v>200</v>
+      </c>
+      <c r="E70" t="n">
+        <v>200</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="n">
+        <v>200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>200</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="n">
+        <v>200</v>
+      </c>
+      <c r="E72" t="n">
+        <v>200</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="n">
+        <v>200</v>
+      </c>
+      <c r="E73" t="n">
+        <v>200</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>200</v>
+      </c>
+      <c r="E74" t="n">
+        <v>200</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="n">
+        <v>200</v>
+      </c>
+      <c r="E75" t="n">
+        <v>200</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="n">
+        <v>200</v>
+      </c>
+      <c r="E76" t="n">
+        <v>200</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="n">
+        <v>200</v>
+      </c>
+      <c r="E77" t="n">
+        <v>200</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="n">
+        <v>200</v>
+      </c>
+      <c r="E78" t="n">
+        <v>200</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="n">
+        <v>200</v>
+      </c>
+      <c r="E79" t="n">
+        <v>200</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>200</v>
+      </c>
+      <c r="E80" t="n">
+        <v>200</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="n">
+        <v>200</v>
+      </c>
+      <c r="E81" t="n">
+        <v>200</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="n">
+        <v>200</v>
+      </c>
+      <c r="E82" t="n">
+        <v>200</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="n">
+        <v>200</v>
+      </c>
+      <c r="E83" t="n">
+        <v>200</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="n">
+        <v>200</v>
+      </c>
+      <c r="E84" t="n">
+        <v>200</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="n">
+        <v>200</v>
+      </c>
+      <c r="E85" t="n">
+        <v>200</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>200</v>
+      </c>
+      <c r="E86" t="n">
+        <v>200</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="n">
+        <v>200</v>
+      </c>
+      <c r="E87" t="n">
+        <v>200</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="n">
+        <v>200</v>
+      </c>
+      <c r="E88" t="n">
+        <v>200</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="n">
+        <v>200</v>
+      </c>
+      <c r="E89" t="n">
+        <v>200</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="n">
+        <v>200</v>
+      </c>
+      <c r="E90" t="n">
+        <v>200</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="n">
+        <v>200</v>
+      </c>
+      <c r="E91" t="n">
+        <v>200</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>200</v>
+      </c>
+      <c r="E92" t="n">
+        <v>200</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="n">
+        <v>200</v>
+      </c>
+      <c r="E93" t="n">
+        <v>200</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="n">
+        <v>200</v>
+      </c>
+      <c r="E94" t="n">
+        <v>200</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="n">
+        <v>200</v>
+      </c>
+      <c r="E95" t="n">
+        <v>200</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="n">
+        <v>200</v>
+      </c>
+      <c r="E96" t="n">
+        <v>200</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="n">
+        <v>200</v>
+      </c>
+      <c r="E97" t="n">
+        <v>200</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>200</v>
+      </c>
+      <c r="E98" t="n">
+        <v>200</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="n">
+        <v>200</v>
+      </c>
+      <c r="E99" t="n">
+        <v>200</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="n">
+        <v>200</v>
+      </c>
+      <c r="E100" t="n">
+        <v>200</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="n">
+        <v>200</v>
+      </c>
+      <c r="E101" t="n">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>200</v>
+      </c>
+      <c r="E102" t="n">
+        <v>200</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="n">
+        <v>200</v>
+      </c>
+      <c r="E103" t="n">
+        <v>200</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>200</v>
+      </c>
+      <c r="E104" t="n">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="n">
+        <v>200</v>
+      </c>
+      <c r="E105" t="n">
+        <v>200</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="n">
+        <v>200</v>
+      </c>
+      <c r="E106" t="n">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="n">
+        <v>200</v>
+      </c>
+      <c r="E107" t="n">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="n">
+        <v>200</v>
+      </c>
+      <c r="E108" t="n">
+        <v>200</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="n">
+        <v>200</v>
+      </c>
+      <c r="E109" t="n">
+        <v>200</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>200</v>
+      </c>
+      <c r="E110" t="n">
+        <v>200</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="n">
+        <v>200</v>
+      </c>
+      <c r="E111" t="n">
+        <v>200</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>200</v>
+      </c>
+      <c r="E112" t="n">
+        <v>200</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="n">
+        <v>200</v>
+      </c>
+      <c r="E113" t="n">
+        <v>200</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="n">
+        <v>200</v>
+      </c>
+      <c r="E114" t="n">
+        <v>200</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="n">
+        <v>200</v>
+      </c>
+      <c r="E115" t="n">
+        <v>200</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>200</v>
+      </c>
+      <c r="E116" t="n">
+        <v>200</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" t="n">
+        <v>200</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="n">
+        <v>200</v>
+      </c>
+      <c r="E118" t="n">
+        <v>200</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="n">
+        <v>200</v>
+      </c>
+      <c r="E119" t="n">
+        <v>200</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" t="n">
+        <v>200</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" t="n">
+        <v>200</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>200</v>
+      </c>
+      <c r="E122" t="n">
+        <v>200</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>200</v>
+      </c>
+      <c r="E123" t="n">
+        <v>200</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="n">
+        <v>200</v>
+      </c>
+      <c r="E124" t="n">
+        <v>200</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="n">
+        <v>200</v>
+      </c>
+      <c r="E125" t="n">
+        <v>200</v>
+      </c>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="n">
+        <v>200</v>
+      </c>
+      <c r="E126" t="n">
+        <v>200</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="n">
+        <v>200</v>
+      </c>
+      <c r="E127" t="n">
+        <v>200</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>200</v>
+      </c>
+      <c r="E128" t="n">
+        <v>200</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="n">
+        <v>200</v>
+      </c>
+      <c r="E129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="n">
+        <v>200</v>
+      </c>
+      <c r="E130" t="n">
+        <v>200</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="n">
+        <v>200</v>
+      </c>
+      <c r="E131" t="n">
+        <v>200</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>200</v>
+      </c>
+      <c r="E132" t="n">
+        <v>200</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="n">
+        <v>200</v>
+      </c>
+      <c r="E133" t="n">
+        <v>200</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>200</v>
+      </c>
+      <c r="E134" t="n">
+        <v>200</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="n">
+        <v>200</v>
+      </c>
+      <c r="E135" t="n">
+        <v>200</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="n">
+        <v>200</v>
+      </c>
+      <c r="E136" t="n">
+        <v>200</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="n">
+        <v>200</v>
+      </c>
+      <c r="E137" t="n">
+        <v>200</v>
+      </c>
+      <c r="F137" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>200</v>
+      </c>
+      <c r="E138" t="n">
+        <v>200</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="n">
+        <v>200</v>
+      </c>
+      <c r="E139" t="n">
+        <v>200</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>200</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" t="n">
+        <v>200</v>
+      </c>
+      <c r="E141" t="n">
+        <v>200</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="n">
+        <v>200</v>
+      </c>
+      <c r="E142" t="n">
+        <v>200</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="n">
+        <v>200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>200</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="n">
+        <v>200</v>
+      </c>
+      <c r="E144" t="n">
+        <v>200</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="n">
+        <v>200</v>
+      </c>
+      <c r="E145" t="n">
+        <v>200</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>200</v>
+      </c>
+      <c r="E146" t="n">
+        <v>200</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="n">
+        <v>200</v>
+      </c>
+      <c r="E147" t="n">
+        <v>200</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="n">
+        <v>200</v>
+      </c>
+      <c r="E148" t="n">
+        <v>200</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="n">
+        <v>200</v>
+      </c>
+      <c r="E149" t="n">
+        <v>200</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="n">
+        <v>200</v>
+      </c>
+      <c r="E150" t="n">
+        <v>200</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" t="n">
+        <v>200</v>
+      </c>
+      <c r="E151" t="n">
+        <v>200</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>200</v>
+      </c>
+      <c r="E152" t="n">
+        <v>200</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="n">
+        <v>200</v>
+      </c>
+      <c r="E153" t="n">
+        <v>200</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="n">
+        <v>200</v>
+      </c>
+      <c r="E154" t="n">
+        <v>200</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="n">
+        <v>200</v>
+      </c>
+      <c r="E155" t="n">
+        <v>200</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="n">
+        <v>200</v>
+      </c>
+      <c r="E156" t="n">
+        <v>200</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="n">
+        <v>200</v>
+      </c>
+      <c r="E157" t="n">
+        <v>200</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>200</v>
+      </c>
+      <c r="E158" t="n">
+        <v>200</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="n">
+        <v>200</v>
+      </c>
+      <c r="E159" t="n">
+        <v>200</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="n">
+        <v>200</v>
+      </c>
+      <c r="E160" t="n">
+        <v>200</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="n">
+        <v>200</v>
+      </c>
+      <c r="E161" t="n">
+        <v>200</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>200</v>
+      </c>
+      <c r="E162" t="n">
+        <v>200</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="n">
+        <v>200</v>
+      </c>
+      <c r="E163" t="n">
+        <v>200</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>200</v>
+      </c>
+      <c r="E164" t="n">
+        <v>200</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="n">
+        <v>200</v>
+      </c>
+      <c r="E165" t="n">
+        <v>200</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="n">
+        <v>200</v>
+      </c>
+      <c r="E166" t="n">
+        <v>200</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="n">
+        <v>200</v>
+      </c>
+      <c r="E167" t="n">
+        <v>200</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="n">
+        <v>200</v>
+      </c>
+      <c r="E168" t="n">
+        <v>200</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" t="n">
+        <v>200</v>
+      </c>
+      <c r="E169" t="n">
+        <v>200</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>200</v>
+      </c>
+      <c r="E170" t="n">
+        <v>200</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>200</v>
+      </c>
+      <c r="E171" t="n">
+        <v>200</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="n">
+        <v>200</v>
+      </c>
+      <c r="E172" t="n">
+        <v>200</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="n">
+        <v>200</v>
+      </c>
+      <c r="E173" t="n">
+        <v>200</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="n">
+        <v>200</v>
+      </c>
+      <c r="E174" t="n">
+        <v>200</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="n">
+        <v>200</v>
+      </c>
+      <c r="E175" t="n">
+        <v>200</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>200</v>
+      </c>
+      <c r="E176" t="n">
+        <v>200</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="n">
+        <v>200</v>
+      </c>
+      <c r="E177" t="n">
+        <v>200</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="n">
+        <v>200</v>
+      </c>
+      <c r="E178" t="n">
+        <v>200</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="n">
+        <v>200</v>
+      </c>
+      <c r="E179" t="n">
+        <v>200</v>
+      </c>
+      <c r="F179" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="n">
+        <v>200</v>
+      </c>
+      <c r="E180" t="n">
+        <v>200</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="n">
+        <v>200</v>
+      </c>
+      <c r="E181" t="n">
+        <v>200</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="n">
+        <v>200</v>
+      </c>
+      <c r="E182" t="n">
+        <v>200</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="n">
+        <v>200</v>
+      </c>
+      <c r="E183" t="n">
+        <v>200</v>
+      </c>
+      <c r="F183" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="n">
+        <v>200</v>
+      </c>
+      <c r="E184" t="n">
+        <v>200</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="n">
+        <v>200</v>
+      </c>
+      <c r="E185" t="n">
+        <v>200</v>
+      </c>
+      <c r="F185" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="n">
+        <v>200</v>
+      </c>
+      <c r="E186" t="n">
+        <v>200</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="n">
+        <v>200</v>
+      </c>
+      <c r="E187" t="n">
+        <v>200</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>200</v>
+      </c>
+      <c r="E188" t="n">
+        <v>200</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="n">
+        <v>200</v>
+      </c>
+      <c r="E189" t="n">
+        <v>200</v>
+      </c>
+      <c r="F189" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="n">
+        <v>200</v>
+      </c>
+      <c r="E190" t="n">
+        <v>200</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="n">
+        <v>200</v>
+      </c>
+      <c r="E191" t="n">
+        <v>200</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="n">
+        <v>200</v>
+      </c>
+      <c r="E192" t="n">
+        <v>200</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="n">
+        <v>200</v>
+      </c>
+      <c r="E193" t="n">
+        <v>200</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>200</v>
+      </c>
+      <c r="E194" t="n">
+        <v>200</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195" t="n">
+        <v>200</v>
+      </c>
+      <c r="E195" t="n">
+        <v>200</v>
+      </c>
+      <c r="F195" t="b">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="n">
+        <v>200</v>
+      </c>
+      <c r="E196" t="n">
+        <v>200</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="n">
+        <v>200</v>
+      </c>
+      <c r="E197" t="n">
+        <v>200</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" t="n">
+        <v>200</v>
+      </c>
+      <c r="E198" t="n">
+        <v>200</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" t="n">
+        <v>200</v>
+      </c>
+      <c r="E199" t="n">
+        <v>200</v>
+      </c>
+      <c r="G199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>200</v>
+      </c>
+      <c r="E200" t="n">
+        <v>200</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="n">
+        <v>200</v>
+      </c>
+      <c r="F201" t="b">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="n">
+        <v>200</v>
+      </c>
+      <c r="E202" t="n">
+        <v>200</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" t="n">
+        <v>200</v>
+      </c>
+      <c r="E203" t="n">
+        <v>200</v>
+      </c>
+      <c r="F203" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" t="n">
+        <v>200</v>
+      </c>
+      <c r="E204" t="n">
+        <v>200</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" t="n">
+        <v>200</v>
+      </c>
+      <c r="E205" t="n">
+        <v>200</v>
+      </c>
+      <c r="G205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" t="n">
+        <v>200</v>
+      </c>
+      <c r="E206" t="n">
+        <v>200</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" t="n">
+        <v>200</v>
+      </c>
+      <c r="E207" t="n">
+        <v>200</v>
+      </c>
+      <c r="F207" t="b">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="n">
+        <v>200</v>
+      </c>
+      <c r="E208" t="n">
+        <v>200</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="n">
+        <v>200</v>
+      </c>
+      <c r="E209" t="n">
+        <v>200</v>
+      </c>
+      <c r="F209" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" t="n">
+        <v>200</v>
+      </c>
+      <c r="E210" t="n">
+        <v>200</v>
+      </c>
+      <c r="F210" t="b">
+        <v>0</v>
+      </c>
+      <c r="G210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" t="n">
+        <v>200</v>
+      </c>
+      <c r="E211" t="n">
+        <v>200</v>
+      </c>
+      <c r="G211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>200</v>
+      </c>
+      <c r="E212" t="n">
+        <v>200</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" t="n">
+        <v>200</v>
+      </c>
+      <c r="E213" t="n">
+        <v>200</v>
+      </c>
+      <c r="F213" t="b">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" t="n">
+        <v>200</v>
+      </c>
+      <c r="E214" t="n">
+        <v>200</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="n">
+        <v>200</v>
+      </c>
+      <c r="E215" t="n">
+        <v>200</v>
+      </c>
+      <c r="F215" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" t="n">
+        <v>200</v>
+      </c>
+      <c r="E216" t="n">
+        <v>200</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" t="n">
+        <v>200</v>
+      </c>
+      <c r="E217" t="n">
+        <v>200</v>
+      </c>
+      <c r="G217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" t="n">
+        <v>200</v>
+      </c>
+      <c r="E218" t="n">
+        <v>200</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" t="n">
+        <v>200</v>
+      </c>
+      <c r="E219" t="n">
+        <v>200</v>
+      </c>
+      <c r="F219" t="b">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" t="n">
+        <v>200</v>
+      </c>
+      <c r="E220" t="n">
+        <v>200</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" t="n">
+        <v>200</v>
+      </c>
+      <c r="E221" t="n">
+        <v>200</v>
+      </c>
+      <c r="F221" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="n">
+        <v>200</v>
+      </c>
+      <c r="E222" t="n">
+        <v>200</v>
+      </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" t="s">
+        <v>18</v>
+      </c>
+      <c r="D223" t="n">
+        <v>200</v>
+      </c>
+      <c r="E223" t="n">
+        <v>200</v>
+      </c>
+      <c r="G223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>200</v>
+      </c>
+      <c r="E224" t="n">
+        <v>200</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="n">
+        <v>200</v>
+      </c>
+      <c r="E225" t="n">
+        <v>200</v>
+      </c>
+      <c r="F225" t="b">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="n">
+        <v>200</v>
+      </c>
+      <c r="E226" t="n">
+        <v>200</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" t="n">
+        <v>200</v>
+      </c>
+      <c r="E227" t="n">
+        <v>200</v>
+      </c>
+      <c r="F227" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="n">
+        <v>200</v>
+      </c>
+      <c r="E228" t="n">
+        <v>200</v>
+      </c>
+      <c r="F228" t="b">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" t="n">
+        <v>200</v>
+      </c>
+      <c r="E229" t="n">
+        <v>200</v>
+      </c>
+      <c r="G229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>200</v>
+      </c>
+      <c r="E230" t="n">
+        <v>200</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" t="n">
+        <v>200</v>
+      </c>
+      <c r="E231" t="n">
+        <v>200</v>
+      </c>
+      <c r="F231" t="b">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="n">
+        <v>200</v>
+      </c>
+      <c r="E232" t="n">
+        <v>200</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" t="n">
+        <v>200</v>
+      </c>
+      <c r="E233" t="n">
+        <v>200</v>
+      </c>
+      <c r="F233" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" t="n">
+        <v>200</v>
+      </c>
+      <c r="E234" t="n">
+        <v>200</v>
+      </c>
+      <c r="F234" t="b">
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" t="n">
+        <v>200</v>
+      </c>
+      <c r="E235" t="n">
+        <v>200</v>
+      </c>
+      <c r="G235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>200</v>
+      </c>
+      <c r="E236" t="n">
+        <v>200</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>23</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" t="n">
+        <v>200</v>
+      </c>
+      <c r="E237" t="n">
+        <v>200</v>
+      </c>
+      <c r="F237" t="b">
+        <v>1</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" t="n">
+        <v>200</v>
+      </c>
+      <c r="E238" t="n">
+        <v>200</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" t="n">
+        <v>200</v>
+      </c>
+      <c r="E239" t="n">
+        <v>200</v>
+      </c>
+      <c r="F239" t="s">
+        <v>16</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" t="n">
+        <v>200</v>
+      </c>
+      <c r="E240" t="n">
+        <v>200</v>
+      </c>
+      <c r="F240" t="b">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" t="s">
+        <v>23</v>
+      </c>
+      <c r="C241" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" t="n">
+        <v>200</v>
+      </c>
+      <c r="E241" t="n">
+        <v>200</v>
+      </c>
+      <c r="G241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>200</v>
+      </c>
+      <c r="E242" t="n">
+        <v>200</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="n">
+        <v>200</v>
+      </c>
+      <c r="E243" t="n">
+        <v>200</v>
+      </c>
+      <c r="F243" t="b">
+        <v>1</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" t="n">
+        <v>200</v>
+      </c>
+      <c r="E244" t="n">
+        <v>200</v>
+      </c>
+      <c r="F244" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" t="n">
+        <v>200</v>
+      </c>
+      <c r="E245" t="n">
+        <v>200</v>
+      </c>
+      <c r="F245" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" t="n">
+        <v>200</v>
+      </c>
+      <c r="E246" t="n">
+        <v>200</v>
+      </c>
+      <c r="F246" t="b">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" t="n">
+        <v>200</v>
+      </c>
+      <c r="E247" t="n">
+        <v>200</v>
+      </c>
+      <c r="G247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" t="s">
+        <v>23</v>
+      </c>
+      <c r="C248" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>200</v>
+      </c>
+      <c r="E248" t="n">
+        <v>200</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" t="n">
+        <v>200</v>
+      </c>
+      <c r="E249" t="n">
+        <v>200</v>
+      </c>
+      <c r="F249" t="b">
+        <v>1</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="n">
+        <v>200</v>
+      </c>
+      <c r="E250" t="n">
+        <v>200</v>
+      </c>
+      <c r="F250" t="s">
+        <v>14</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" t="n">
+        <v>200</v>
+      </c>
+      <c r="E251" t="n">
+        <v>200</v>
+      </c>
+      <c r="F251" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" t="n">
+        <v>200</v>
+      </c>
+      <c r="E252" t="n">
+        <v>200</v>
+      </c>
+      <c r="F252" t="b">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" t="s">
+        <v>23</v>
+      </c>
+      <c r="C253" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" t="n">
+        <v>200</v>
+      </c>
+      <c r="E253" t="n">
+        <v>200</v>
+      </c>
+      <c r="G253" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" t="n">
+        <v>200</v>
+      </c>
+      <c r="E254" t="n">
+        <v>200</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="n">
+        <v>200</v>
+      </c>
+      <c r="E255" t="n">
+        <v>200</v>
+      </c>
+      <c r="F255" t="b">
+        <v>1</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="n">
+        <v>200</v>
+      </c>
+      <c r="E256" t="n">
+        <v>200</v>
+      </c>
+      <c r="F256" t="s">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" t="n">
+        <v>200</v>
+      </c>
+      <c r="E257" t="n">
+        <v>200</v>
+      </c>
+      <c r="F257" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" t="n">
+        <v>200</v>
+      </c>
+      <c r="E258" t="n">
+        <v>200</v>
+      </c>
+      <c r="F258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" t="s">
+        <v>18</v>
+      </c>
+      <c r="D259" t="n">
+        <v>200</v>
+      </c>
+      <c r="E259" t="n">
+        <v>200</v>
+      </c>
+      <c r="G259" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" t="n">
+        <v>200</v>
+      </c>
+      <c r="E260" t="n">
+        <v>200</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" t="n">
+        <v>200</v>
+      </c>
+      <c r="E261" t="n">
+        <v>200</v>
+      </c>
+      <c r="F261" t="b">
+        <v>1</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" t="n">
+        <v>200</v>
+      </c>
+      <c r="E262" t="n">
+        <v>200</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" t="n">
+        <v>200</v>
+      </c>
+      <c r="E263" t="n">
+        <v>200</v>
+      </c>
+      <c r="F263" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" t="s">
+        <v>23</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" t="n">
+        <v>200</v>
+      </c>
+      <c r="E264" t="n">
+        <v>200</v>
+      </c>
+      <c r="F264" t="b">
+        <v>0</v>
+      </c>
+      <c r="G264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>23</v>
+      </c>
+      <c r="C265" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" t="n">
+        <v>200</v>
+      </c>
+      <c r="E265" t="n">
+        <v>200</v>
+      </c>
+      <c r="G265" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" t="n">
+        <v>200</v>
+      </c>
+      <c r="E266" t="n">
+        <v>200</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" t="n">
+        <v>200</v>
+      </c>
+      <c r="E267" t="n">
+        <v>200</v>
+      </c>
+      <c r="F267" t="b">
+        <v>1</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="n">
+        <v>200</v>
+      </c>
+      <c r="E268" t="n">
+        <v>200</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" t="n">
+        <v>200</v>
+      </c>
+      <c r="E269" t="n">
+        <v>200</v>
+      </c>
+      <c r="F269" t="s">
+        <v>16</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" t="n">
+        <v>200</v>
+      </c>
+      <c r="E270" t="n">
+        <v>200</v>
+      </c>
+      <c r="F270" t="b">
+        <v>0</v>
+      </c>
+      <c r="G270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" t="s">
+        <v>18</v>
+      </c>
+      <c r="D271" t="n">
+        <v>200</v>
+      </c>
+      <c r="E271" t="n">
+        <v>200</v>
+      </c>
+      <c r="G271" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272" t="n">
+        <v>200</v>
+      </c>
+      <c r="E272" t="n">
+        <v>200</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" t="n">
+        <v>200</v>
+      </c>
+      <c r="E273" t="n">
+        <v>200</v>
+      </c>
+      <c r="F273" t="b">
+        <v>1</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" t="n">
+        <v>200</v>
+      </c>
+      <c r="E274" t="n">
+        <v>200</v>
+      </c>
+      <c r="F274" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" t="n">
+        <v>200</v>
+      </c>
+      <c r="E275" t="n">
+        <v>200</v>
+      </c>
+      <c r="F275" t="s">
+        <v>16</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" t="n">
+        <v>200</v>
+      </c>
+      <c r="E276" t="n">
+        <v>200</v>
+      </c>
+      <c r="F276" t="b">
+        <v>0</v>
+      </c>
+      <c r="G276" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" t="n">
+        <v>200</v>
+      </c>
+      <c r="E277" t="n">
+        <v>200</v>
+      </c>
+      <c r="G277" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278" t="n">
+        <v>200</v>
+      </c>
+      <c r="E278" t="n">
+        <v>200</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" t="s">
+        <v>23</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" t="n">
+        <v>200</v>
+      </c>
+      <c r="E279" t="n">
+        <v>200</v>
+      </c>
+      <c r="F279" t="b">
+        <v>1</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" t="s">
+        <v>23</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" t="n">
+        <v>200</v>
+      </c>
+      <c r="E280" t="n">
+        <v>200</v>
+      </c>
+      <c r="F280" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281" t="n">
+        <v>200</v>
+      </c>
+      <c r="E281" t="n">
+        <v>200</v>
+      </c>
+      <c r="F281" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282" t="s">
+        <v>23</v>
+      </c>
+      <c r="C282" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" t="n">
+        <v>200</v>
+      </c>
+      <c r="E282" t="n">
+        <v>200</v>
+      </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
+      <c r="G282" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" t="s">
+        <v>23</v>
+      </c>
+      <c r="C283" t="s">
+        <v>18</v>
+      </c>
+      <c r="D283" t="n">
+        <v>200</v>
+      </c>
+      <c r="E283" t="n">
+        <v>200</v>
+      </c>
+      <c r="G283" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" t="n">
+        <v>200</v>
+      </c>
+      <c r="E284" t="n">
+        <v>200</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" t="s">
+        <v>23</v>
+      </c>
+      <c r="C285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" t="n">
+        <v>200</v>
+      </c>
+      <c r="E285" t="n">
+        <v>200</v>
+      </c>
+      <c r="F285" t="b">
+        <v>1</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" t="s">
+        <v>23</v>
+      </c>
+      <c r="C286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" t="n">
+        <v>200</v>
+      </c>
+      <c r="E286" t="n">
+        <v>200</v>
+      </c>
+      <c r="F286" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287" t="s">
+        <v>15</v>
+      </c>
+      <c r="D287" t="n">
+        <v>200</v>
+      </c>
+      <c r="E287" t="n">
+        <v>200</v>
+      </c>
+      <c r="F287" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" t="n">
+        <v>200</v>
+      </c>
+      <c r="E288" t="n">
+        <v>200</v>
+      </c>
+      <c r="F288" t="b">
+        <v>0</v>
+      </c>
+      <c r="G288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" t="n">
+        <v>200</v>
+      </c>
+      <c r="E289" t="n">
+        <v>200</v>
+      </c>
+      <c r="G289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" t="n">
+        <v>200</v>
+      </c>
+      <c r="E290" t="n">
+        <v>200</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" t="n">
+        <v>200</v>
+      </c>
+      <c r="E291" t="n">
+        <v>200</v>
+      </c>
+      <c r="F291" t="b">
+        <v>1</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292" t="s">
+        <v>23</v>
+      </c>
+      <c r="C292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" t="n">
+        <v>200</v>
+      </c>
+      <c r="E292" t="n">
+        <v>200</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" t="n">
+        <v>200</v>
+      </c>
+      <c r="E293" t="n">
+        <v>200</v>
+      </c>
+      <c r="F293" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" t="s">
+        <v>23</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" t="n">
+        <v>200</v>
+      </c>
+      <c r="E294" t="n">
+        <v>200</v>
+      </c>
+      <c r="F294" t="b">
+        <v>0</v>
+      </c>
+      <c r="G294" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295" t="s">
+        <v>23</v>
+      </c>
+      <c r="C295" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295" t="n">
+        <v>200</v>
+      </c>
+      <c r="E295" t="n">
+        <v>200</v>
+      </c>
+      <c r="G295" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" t="n">
+        <v>200</v>
+      </c>
+      <c r="E296" t="n">
+        <v>200</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>7</v>
+      </c>
+      <c r="B297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" t="n">
+        <v>200</v>
+      </c>
+      <c r="E297" t="n">
+        <v>200</v>
+      </c>
+      <c r="F297" t="b">
+        <v>1</v>
+      </c>
+      <c r="G297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" t="n">
+        <v>200</v>
+      </c>
+      <c r="E298" t="n">
+        <v>200</v>
+      </c>
+      <c r="F298" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299" t="n">
+        <v>200</v>
+      </c>
+      <c r="E299" t="n">
+        <v>200</v>
+      </c>
+      <c r="F299" t="s">
+        <v>16</v>
+      </c>
+      <c r="G299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" t="n">
+        <v>200</v>
+      </c>
+      <c r="E300" t="n">
+        <v>200</v>
+      </c>
+      <c r="F300" t="b">
+        <v>0</v>
+      </c>
+      <c r="G300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" t="s">
+        <v>18</v>
+      </c>
+      <c r="D301" t="n">
+        <v>200</v>
+      </c>
+      <c r="E301" t="n">
+        <v>200</v>
+      </c>
+      <c r="G301" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" t="n">
+        <v>200</v>
+      </c>
+      <c r="E302" t="n">
+        <v>200</v>
+      </c>
+      <c r="F302" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" t="n">
+        <v>200</v>
+      </c>
+      <c r="E303" t="n">
+        <v>200</v>
+      </c>
+      <c r="F303" t="b">
+        <v>1</v>
+      </c>
+      <c r="G303" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" t="s">
+        <v>23</v>
+      </c>
+      <c r="C304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" t="n">
+        <v>200</v>
+      </c>
+      <c r="E304" t="n">
+        <v>200</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" t="n">
+        <v>200</v>
+      </c>
+      <c r="E305" t="n">
+        <v>200</v>
+      </c>
+      <c r="F305" t="s">
+        <v>16</v>
+      </c>
+      <c r="G305" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" t="n">
+        <v>200</v>
+      </c>
+      <c r="E306" t="n">
+        <v>200</v>
+      </c>
+      <c r="F306" t="b">
+        <v>0</v>
+      </c>
+      <c r="G306" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307" t="s">
+        <v>18</v>
+      </c>
+      <c r="D307" t="n">
+        <v>200</v>
+      </c>
+      <c r="E307" t="n">
+        <v>200</v>
+      </c>
+      <c r="G307" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" t="n">
+        <v>200</v>
+      </c>
+      <c r="E308" t="n">
+        <v>200</v>
+      </c>
+      <c r="F308" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" t="n">
+        <v>200</v>
+      </c>
+      <c r="E309" t="n">
+        <v>200</v>
+      </c>
+      <c r="F309" t="b">
+        <v>1</v>
+      </c>
+      <c r="G309" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" t="n">
+        <v>200</v>
+      </c>
+      <c r="E310" t="n">
+        <v>200</v>
+      </c>
+      <c r="F310" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" t="n">
+        <v>200</v>
+      </c>
+      <c r="E311" t="n">
+        <v>200</v>
+      </c>
+      <c r="F311" t="s">
+        <v>16</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" t="n">
+        <v>200</v>
+      </c>
+      <c r="E312" t="n">
+        <v>200</v>
+      </c>
+      <c r="F312" t="b">
+        <v>0</v>
+      </c>
+      <c r="G312" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313" t="s">
+        <v>18</v>
+      </c>
+      <c r="D313" t="n">
+        <v>200</v>
+      </c>
+      <c r="E313" t="n">
+        <v>200</v>
+      </c>
+      <c r="G313" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" t="n">
+        <v>200</v>
+      </c>
+      <c r="E314" t="n">
+        <v>200</v>
+      </c>
+      <c r="F314" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" t="s">
+        <v>23</v>
+      </c>
+      <c r="C315" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" t="n">
+        <v>200</v>
+      </c>
+      <c r="E315" t="n">
+        <v>200</v>
+      </c>
+      <c r="F315" t="b">
+        <v>1</v>
+      </c>
+      <c r="G315" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" t="n">
+        <v>200</v>
+      </c>
+      <c r="E316" t="n">
+        <v>200</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317" t="s">
+        <v>15</v>
+      </c>
+      <c r="D317" t="n">
+        <v>200</v>
+      </c>
+      <c r="E317" t="n">
+        <v>200</v>
+      </c>
+      <c r="F317" t="s">
+        <v>16</v>
+      </c>
+      <c r="G317" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318" t="n">
+        <v>200</v>
+      </c>
+      <c r="E318" t="n">
+        <v>200</v>
+      </c>
+      <c r="F318" t="b">
+        <v>0</v>
+      </c>
+      <c r="G318" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319" t="s">
+        <v>18</v>
+      </c>
+      <c r="D319" t="n">
+        <v>200</v>
+      </c>
+      <c r="E319" t="n">
+        <v>200</v>
+      </c>
+      <c r="G319" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" t="n">
+        <v>200</v>
+      </c>
+      <c r="E320" t="n">
+        <v>200</v>
+      </c>
+      <c r="F320" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" t="n">
+        <v>200</v>
+      </c>
+      <c r="E321" t="n">
+        <v>200</v>
+      </c>
+      <c r="F321" t="b">
+        <v>1</v>
+      </c>
+      <c r="G321" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>7</v>
+      </c>
+      <c r="B322" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" t="n">
+        <v>200</v>
+      </c>
+      <c r="E322" t="n">
+        <v>200</v>
+      </c>
+      <c r="F322" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>7</v>
+      </c>
+      <c r="B323" t="s">
+        <v>23</v>
+      </c>
+      <c r="C323" t="s">
+        <v>15</v>
+      </c>
+      <c r="D323" t="n">
+        <v>200</v>
+      </c>
+      <c r="E323" t="n">
+        <v>200</v>
+      </c>
+      <c r="F323" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324" t="s">
+        <v>23</v>
+      </c>
+      <c r="C324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" t="n">
+        <v>200</v>
+      </c>
+      <c r="E324" t="n">
+        <v>200</v>
+      </c>
+      <c r="F324" t="b">
+        <v>0</v>
+      </c>
+      <c r="G324" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B325" t="s">
+        <v>23</v>
+      </c>
+      <c r="C325" t="s">
+        <v>18</v>
+      </c>
+      <c r="D325" t="n">
+        <v>200</v>
+      </c>
+      <c r="E325" t="n">
+        <v>200</v>
+      </c>
+      <c r="G325" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326" t="s">
+        <v>23</v>
+      </c>
+      <c r="C326" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" t="n">
+        <v>200</v>
+      </c>
+      <c r="E326" t="n">
+        <v>200</v>
+      </c>
+      <c r="F326" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" t="s">
+        <v>23</v>
+      </c>
+      <c r="C327" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" t="n">
+        <v>200</v>
+      </c>
+      <c r="E327" t="n">
+        <v>200</v>
+      </c>
+      <c r="F327" t="b">
+        <v>1</v>
+      </c>
+      <c r="G327" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328" t="s">
+        <v>23</v>
+      </c>
+      <c r="C328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" t="n">
+        <v>200</v>
+      </c>
+      <c r="E328" t="n">
+        <v>200</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329" t="s">
+        <v>23</v>
+      </c>
+      <c r="C329" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329" t="n">
+        <v>200</v>
+      </c>
+      <c r="E329" t="n">
+        <v>200</v>
+      </c>
+      <c r="F329" t="s">
+        <v>16</v>
+      </c>
+      <c r="G329" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" t="s">
+        <v>23</v>
+      </c>
+      <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" t="n">
+        <v>200</v>
+      </c>
+      <c r="E330" t="n">
+        <v>200</v>
+      </c>
+      <c r="F330" t="b">
+        <v>0</v>
+      </c>
+      <c r="G330" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B331" t="s">
+        <v>23</v>
+      </c>
+      <c r="C331" t="s">
+        <v>18</v>
+      </c>
+      <c r="D331" t="n">
+        <v>200</v>
+      </c>
+      <c r="E331" t="n">
+        <v>200</v>
+      </c>
+      <c r="G331" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" t="n">
+        <v>200</v>
+      </c>
+      <c r="E332" t="n">
+        <v>200</v>
+      </c>
+      <c r="F332" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" t="s">
+        <v>23</v>
+      </c>
+      <c r="C333" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" t="n">
+        <v>200</v>
+      </c>
+      <c r="E333" t="n">
+        <v>200</v>
+      </c>
+      <c r="F333" t="b">
+        <v>1</v>
+      </c>
+      <c r="G333" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>7</v>
+      </c>
+      <c r="B334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" t="n">
+        <v>200</v>
+      </c>
+      <c r="E334" t="n">
+        <v>200</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335" t="n">
+        <v>200</v>
+      </c>
+      <c r="E335" t="n">
+        <v>200</v>
+      </c>
+      <c r="F335" t="s">
+        <v>16</v>
+      </c>
+      <c r="G335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B336" t="s">
+        <v>23</v>
+      </c>
+      <c r="C336" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336" t="n">
+        <v>200</v>
+      </c>
+      <c r="E336" t="n">
+        <v>200</v>
+      </c>
+      <c r="F336" t="b">
+        <v>0</v>
+      </c>
+      <c r="G336" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337" t="s">
+        <v>23</v>
+      </c>
+      <c r="C337" t="s">
+        <v>18</v>
+      </c>
+      <c r="D337" t="n">
+        <v>200</v>
+      </c>
+      <c r="E337" t="n">
+        <v>200</v>
+      </c>
+      <c r="G337" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" t="n">
+        <v>200</v>
+      </c>
+      <c r="E338" t="n">
+        <v>200</v>
+      </c>
+      <c r="F338" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" t="n">
+        <v>200</v>
+      </c>
+      <c r="E339" t="n">
+        <v>200</v>
+      </c>
+      <c r="F339" t="b">
+        <v>1</v>
+      </c>
+      <c r="G339" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" t="n">
+        <v>200</v>
+      </c>
+      <c r="E340" t="n">
+        <v>200</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341" t="s">
+        <v>15</v>
+      </c>
+      <c r="D341" t="n">
+        <v>200</v>
+      </c>
+      <c r="E341" t="n">
+        <v>200</v>
+      </c>
+      <c r="F341" t="s">
+        <v>16</v>
+      </c>
+      <c r="G341" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" t="n">
+        <v>200</v>
+      </c>
+      <c r="E342" t="n">
+        <v>200</v>
+      </c>
+      <c r="F342" t="b">
+        <v>0</v>
+      </c>
+      <c r="G342" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" t="n">
+        <v>200</v>
+      </c>
+      <c r="E343" t="n">
+        <v>200</v>
+      </c>
+      <c r="G343" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" t="s">
         <v>24</v>
       </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" t="n">
-        <v>200</v>
-      </c>
-      <c r="E64" t="n">
-        <v>200</v>
-      </c>
-      <c r="F64" t="s"/>
-      <c r="G64" t="s">
+      <c r="C344" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" t="n">
+        <v>200</v>
+      </c>
+      <c r="E344" t="n">
+        <v>200</v>
+      </c>
+      <c r="F344" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" t="s">
+        <v>24</v>
+      </c>
+      <c r="C345" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" t="n">
+        <v>200</v>
+      </c>
+      <c r="E345" t="n">
+        <v>200</v>
+      </c>
+      <c r="F345" t="b">
+        <v>1</v>
+      </c>
+      <c r="G345" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346" t="s">
+        <v>24</v>
+      </c>
+      <c r="C346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" t="n">
+        <v>200</v>
+      </c>
+      <c r="E346" t="n">
+        <v>200</v>
+      </c>
+      <c r="F346" t="s">
         <v>14</v>
+      </c>
+      <c r="G346" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" t="s">
+        <v>24</v>
+      </c>
+      <c r="C347" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" t="n">
+        <v>200</v>
+      </c>
+      <c r="E347" t="n">
+        <v>200</v>
+      </c>
+      <c r="F347" t="s">
+        <v>16</v>
+      </c>
+      <c r="G347" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" t="s">
+        <v>24</v>
+      </c>
+      <c r="C348" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" t="n">
+        <v>200</v>
+      </c>
+      <c r="E348" t="n">
+        <v>200</v>
+      </c>
+      <c r="F348" t="b">
+        <v>0</v>
+      </c>
+      <c r="G348" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" t="s">
+        <v>24</v>
+      </c>
+      <c r="C349" t="s">
+        <v>18</v>
+      </c>
+      <c r="D349" t="n">
+        <v>200</v>
+      </c>
+      <c r="E349" t="n">
+        <v>200</v>
+      </c>
+      <c r="G349" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" t="s">
+        <v>25</v>
+      </c>
+      <c r="C350" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" t="n">
+        <v>200</v>
+      </c>
+      <c r="E350" t="n">
+        <v>200</v>
+      </c>
+      <c r="F350" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" t="s">
+        <v>25</v>
+      </c>
+      <c r="C351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351" t="n">
+        <v>200</v>
+      </c>
+      <c r="E351" t="n">
+        <v>200</v>
+      </c>
+      <c r="F351" t="b">
+        <v>1</v>
+      </c>
+      <c r="G351" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" t="n">
+        <v>200</v>
+      </c>
+      <c r="E352" t="n">
+        <v>200</v>
+      </c>
+      <c r="F352" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" t="s">
+        <v>25</v>
+      </c>
+      <c r="C353" t="s">
+        <v>15</v>
+      </c>
+      <c r="D353" t="n">
+        <v>200</v>
+      </c>
+      <c r="E353" t="n">
+        <v>200</v>
+      </c>
+      <c r="F353" t="s">
+        <v>16</v>
+      </c>
+      <c r="G353" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" t="s">
+        <v>25</v>
+      </c>
+      <c r="C354" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" t="n">
+        <v>200</v>
+      </c>
+      <c r="E354" t="n">
+        <v>200</v>
+      </c>
+      <c r="F354" t="b">
+        <v>0</v>
+      </c>
+      <c r="G354" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355" t="s">
+        <v>25</v>
+      </c>
+      <c r="C355" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" t="n">
+        <v>200</v>
+      </c>
+      <c r="E355" t="n">
+        <v>200</v>
+      </c>
+      <c r="G355" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" t="s">
+        <v>26</v>
+      </c>
+      <c r="C356" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356" t="n">
+        <v>200</v>
+      </c>
+      <c r="E356" t="n">
+        <v>200</v>
+      </c>
+      <c r="F356" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" t="s">
+        <v>26</v>
+      </c>
+      <c r="C357" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" t="n">
+        <v>200</v>
+      </c>
+      <c r="E357" t="n">
+        <v>200</v>
+      </c>
+      <c r="F357" t="b">
+        <v>1</v>
+      </c>
+      <c r="G357" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>7</v>
+      </c>
+      <c r="B358" t="s">
+        <v>26</v>
+      </c>
+      <c r="C358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" t="n">
+        <v>200</v>
+      </c>
+      <c r="E358" t="n">
+        <v>200</v>
+      </c>
+      <c r="F358" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C359" t="s">
+        <v>15</v>
+      </c>
+      <c r="D359" t="n">
+        <v>200</v>
+      </c>
+      <c r="E359" t="n">
+        <v>200</v>
+      </c>
+      <c r="F359" t="s">
+        <v>16</v>
+      </c>
+      <c r="G359" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360" t="s">
+        <v>26</v>
+      </c>
+      <c r="C360" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" t="n">
+        <v>200</v>
+      </c>
+      <c r="E360" t="n">
+        <v>200</v>
+      </c>
+      <c r="F360" t="b">
+        <v>0</v>
+      </c>
+      <c r="G360" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361" t="s">
+        <v>26</v>
+      </c>
+      <c r="C361" t="s">
+        <v>18</v>
+      </c>
+      <c r="D361" t="n">
+        <v>200</v>
+      </c>
+      <c r="E361" t="n">
+        <v>200</v>
+      </c>
+      <c r="G361" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" t="s">
+        <v>7</v>
+      </c>
+      <c r="B362" t="s">
+        <v>27</v>
+      </c>
+      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" t="n">
+        <v>200</v>
+      </c>
+      <c r="E362" t="n">
+        <v>200</v>
+      </c>
+      <c r="F362" t="s">
+        <v>10</v>
+      </c>
+      <c r="G362" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" t="s">
+        <v>27</v>
+      </c>
+      <c r="C363" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" t="n">
+        <v>200</v>
+      </c>
+      <c r="E363" t="n">
+        <v>200</v>
+      </c>
+      <c r="F363" t="b">
+        <v>1</v>
+      </c>
+      <c r="G363" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364" t="s">
+        <v>27</v>
+      </c>
+      <c r="C364" t="s">
+        <v>13</v>
+      </c>
+      <c r="D364" t="n">
+        <v>200</v>
+      </c>
+      <c r="E364" t="n">
+        <v>200</v>
+      </c>
+      <c r="F364" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" t="s">
+        <v>27</v>
+      </c>
+      <c r="C365" t="s">
+        <v>15</v>
+      </c>
+      <c r="D365" t="n">
+        <v>200</v>
+      </c>
+      <c r="E365" t="n">
+        <v>200</v>
+      </c>
+      <c r="F365" t="s">
+        <v>16</v>
+      </c>
+      <c r="G365" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" t="s">
+        <v>27</v>
+      </c>
+      <c r="C366" t="s">
+        <v>12</v>
+      </c>
+      <c r="D366" t="n">
+        <v>200</v>
+      </c>
+      <c r="E366" t="n">
+        <v>200</v>
+      </c>
+      <c r="F366" t="b">
+        <v>0</v>
+      </c>
+      <c r="G366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" t="s">
+        <v>7</v>
+      </c>
+      <c r="B367" t="s">
+        <v>27</v>
+      </c>
+      <c r="C367" t="s">
+        <v>18</v>
+      </c>
+      <c r="D367" t="n">
+        <v>200</v>
+      </c>
+      <c r="E367" t="n">
+        <v>200</v>
+      </c>
+      <c r="F367" t="s"/>
+      <c r="G367" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -98,6 +98,54 @@
   </si>
   <si>
     <t>20170220_14:50:11</t>
+  </si>
+  <si>
+    <t>20170221_09:22:32</t>
+  </si>
+  <si>
+    <t>Test002</t>
+  </si>
+  <si>
+    <t>20170221_09:26:07</t>
+  </si>
+  <si>
+    <t>房型不存在~</t>
+  </si>
+  <si>
+    <t>20170221_09:29:33</t>
+  </si>
+  <si>
+    <t>20170221_09:29:52</t>
+  </si>
+  <si>
+    <t>20170221_09:32:14</t>
+  </si>
+  <si>
+    <t>20170221_09:33:46</t>
+  </si>
+  <si>
+    <t>20170221_09:42:23</t>
+  </si>
+  <si>
+    <t>20170221_09:43:13</t>
+  </si>
+  <si>
+    <t>20170221_09:51:24</t>
+  </si>
+  <si>
+    <t>20170221_09:57:57</t>
+  </si>
+  <si>
+    <t>20170221_10:52:23</t>
+  </si>
+  <si>
+    <t>20170221_10:54:59</t>
+  </si>
+  <si>
+    <t>TCS_001</t>
+  </si>
+  <si>
+    <t>20170221_13:33:59</t>
   </si>
 </sst>
 </file>
@@ -460,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G10:G11"/>
@@ -8731,9 +8779,1718 @@
       <c r="E367" t="n">
         <v>200</v>
       </c>
-      <c r="F367" t="s"/>
       <c r="G367" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368" t="s">
+        <v>28</v>
+      </c>
+      <c r="C368" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" t="n">
+        <v>200</v>
+      </c>
+      <c r="E368" t="n">
+        <v>200</v>
+      </c>
+      <c r="F368" t="s">
+        <v>10</v>
+      </c>
+      <c r="G368" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" t="s">
+        <v>7</v>
+      </c>
+      <c r="B369" t="s">
+        <v>28</v>
+      </c>
+      <c r="C369" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" t="n">
+        <v>200</v>
+      </c>
+      <c r="E369" t="n">
+        <v>200</v>
+      </c>
+      <c r="F369" t="b">
+        <v>1</v>
+      </c>
+      <c r="G369" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" t="s">
+        <v>28</v>
+      </c>
+      <c r="C370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" t="n">
+        <v>200</v>
+      </c>
+      <c r="E370" t="n">
+        <v>200</v>
+      </c>
+      <c r="F370" t="s">
+        <v>14</v>
+      </c>
+      <c r="G370" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B371" t="s">
+        <v>28</v>
+      </c>
+      <c r="C371" t="s">
+        <v>15</v>
+      </c>
+      <c r="D371" t="n">
+        <v>200</v>
+      </c>
+      <c r="E371" t="n">
+        <v>200</v>
+      </c>
+      <c r="F371" t="s">
+        <v>16</v>
+      </c>
+      <c r="G371" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372" t="s">
+        <v>28</v>
+      </c>
+      <c r="C372" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" t="n">
+        <v>200</v>
+      </c>
+      <c r="E372" t="n">
+        <v>200</v>
+      </c>
+      <c r="F372" t="b">
+        <v>0</v>
+      </c>
+      <c r="G372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373" t="s">
+        <v>28</v>
+      </c>
+      <c r="C373" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" t="n">
+        <v>200</v>
+      </c>
+      <c r="E373" t="n">
+        <v>200</v>
+      </c>
+      <c r="G373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" t="s">
+        <v>29</v>
+      </c>
+      <c r="B374" t="s">
+        <v>30</v>
+      </c>
+      <c r="C374" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" t="n">
+        <v>200</v>
+      </c>
+      <c r="E374" t="n">
+        <v>200</v>
+      </c>
+      <c r="F374" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" t="s">
+        <v>29</v>
+      </c>
+      <c r="B375" t="s">
+        <v>30</v>
+      </c>
+      <c r="C375" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375" t="n">
+        <v>200</v>
+      </c>
+      <c r="E375" t="n">
+        <v>200</v>
+      </c>
+      <c r="F375" t="b">
+        <v>1</v>
+      </c>
+      <c r="G375" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" t="s">
+        <v>29</v>
+      </c>
+      <c r="B376" t="s">
+        <v>30</v>
+      </c>
+      <c r="C376" t="s">
+        <v>15</v>
+      </c>
+      <c r="D376" t="n">
+        <v>200</v>
+      </c>
+      <c r="E376" t="n">
+        <v>200</v>
+      </c>
+      <c r="F376" t="s">
+        <v>16</v>
+      </c>
+      <c r="G376" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" t="s">
+        <v>29</v>
+      </c>
+      <c r="B377" t="s">
+        <v>30</v>
+      </c>
+      <c r="C377" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" t="n">
+        <v>200</v>
+      </c>
+      <c r="E377" t="n">
+        <v>200</v>
+      </c>
+      <c r="F377" t="b">
+        <v>0</v>
+      </c>
+      <c r="G377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" t="s">
+        <v>29</v>
+      </c>
+      <c r="B378" t="s">
+        <v>30</v>
+      </c>
+      <c r="C378" t="s">
+        <v>13</v>
+      </c>
+      <c r="D378" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E378" t="n">
+        <v>409</v>
+      </c>
+      <c r="F378" t="s">
+        <v>31</v>
+      </c>
+      <c r="G378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" t="s">
+        <v>29</v>
+      </c>
+      <c r="B379" t="s">
+        <v>30</v>
+      </c>
+      <c r="C379" t="s">
+        <v>18</v>
+      </c>
+      <c r="D379" t="n">
+        <v>200</v>
+      </c>
+      <c r="E379" t="n">
+        <v>200</v>
+      </c>
+      <c r="G379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" t="s">
+        <v>29</v>
+      </c>
+      <c r="B380" t="s">
+        <v>32</v>
+      </c>
+      <c r="C380" t="s">
+        <v>9</v>
+      </c>
+      <c r="D380" t="n">
+        <v>200</v>
+      </c>
+      <c r="E380" t="n">
+        <v>200</v>
+      </c>
+      <c r="F380" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" t="s">
+        <v>29</v>
+      </c>
+      <c r="B381" t="s">
+        <v>33</v>
+      </c>
+      <c r="C381" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" t="n">
+        <v>200</v>
+      </c>
+      <c r="E381" t="n">
+        <v>200</v>
+      </c>
+      <c r="F381" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" t="s">
+        <v>29</v>
+      </c>
+      <c r="B382" t="s">
+        <v>34</v>
+      </c>
+      <c r="C382" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" t="n">
+        <v>200</v>
+      </c>
+      <c r="E382" t="n">
+        <v>200</v>
+      </c>
+      <c r="F382" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" t="s">
+        <v>29</v>
+      </c>
+      <c r="B383" t="s">
+        <v>34</v>
+      </c>
+      <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" t="n">
+        <v>200</v>
+      </c>
+      <c r="E383" t="n">
+        <v>200</v>
+      </c>
+      <c r="F383" t="b">
+        <v>1</v>
+      </c>
+      <c r="G383" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384" t="s">
+        <v>34</v>
+      </c>
+      <c r="C384" t="s">
+        <v>15</v>
+      </c>
+      <c r="D384" t="n">
+        <v>200</v>
+      </c>
+      <c r="E384" t="n">
+        <v>200</v>
+      </c>
+      <c r="F384" t="s">
+        <v>16</v>
+      </c>
+      <c r="G384" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" t="s">
+        <v>29</v>
+      </c>
+      <c r="B385" t="s">
+        <v>34</v>
+      </c>
+      <c r="C385" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" t="n">
+        <v>200</v>
+      </c>
+      <c r="E385" t="n">
+        <v>200</v>
+      </c>
+      <c r="F385" t="b">
+        <v>0</v>
+      </c>
+      <c r="G385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" t="s">
+        <v>29</v>
+      </c>
+      <c r="B386" t="s">
+        <v>34</v>
+      </c>
+      <c r="C386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E386" t="n">
+        <v>409</v>
+      </c>
+      <c r="F386" t="s">
+        <v>31</v>
+      </c>
+      <c r="G386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" t="s">
+        <v>29</v>
+      </c>
+      <c r="B387" t="s">
+        <v>34</v>
+      </c>
+      <c r="C387" t="s">
+        <v>18</v>
+      </c>
+      <c r="D387" t="n">
+        <v>200</v>
+      </c>
+      <c r="E387" t="n">
+        <v>200</v>
+      </c>
+      <c r="G387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" t="s">
+        <v>29</v>
+      </c>
+      <c r="B388" t="s">
+        <v>35</v>
+      </c>
+      <c r="C388" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" t="n">
+        <v>200</v>
+      </c>
+      <c r="E388" t="n">
+        <v>200</v>
+      </c>
+      <c r="F388" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" t="s">
+        <v>29</v>
+      </c>
+      <c r="B389" t="s">
+        <v>35</v>
+      </c>
+      <c r="C389" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389" t="n">
+        <v>200</v>
+      </c>
+      <c r="E389" t="n">
+        <v>200</v>
+      </c>
+      <c r="F389" t="b">
+        <v>1</v>
+      </c>
+      <c r="G389" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" t="s">
+        <v>29</v>
+      </c>
+      <c r="B390" t="s">
+        <v>35</v>
+      </c>
+      <c r="C390" t="s">
+        <v>15</v>
+      </c>
+      <c r="D390" t="n">
+        <v>200</v>
+      </c>
+      <c r="E390" t="n">
+        <v>200</v>
+      </c>
+      <c r="F390" t="s">
+        <v>16</v>
+      </c>
+      <c r="G390" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" t="s">
+        <v>29</v>
+      </c>
+      <c r="B391" t="s">
+        <v>35</v>
+      </c>
+      <c r="C391" t="s">
+        <v>12</v>
+      </c>
+      <c r="D391" t="n">
+        <v>200</v>
+      </c>
+      <c r="E391" t="n">
+        <v>200</v>
+      </c>
+      <c r="F391" t="b">
+        <v>0</v>
+      </c>
+      <c r="G391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" t="s">
+        <v>29</v>
+      </c>
+      <c r="B392" t="s">
+        <v>35</v>
+      </c>
+      <c r="C392" t="s">
+        <v>13</v>
+      </c>
+      <c r="D392" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E392" t="n">
+        <v>409</v>
+      </c>
+      <c r="F392" t="s">
+        <v>31</v>
+      </c>
+      <c r="G392" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" t="s">
+        <v>29</v>
+      </c>
+      <c r="B393" t="s">
+        <v>35</v>
+      </c>
+      <c r="C393" t="s">
+        <v>18</v>
+      </c>
+      <c r="D393" t="n">
+        <v>200</v>
+      </c>
+      <c r="E393" t="n">
+        <v>200</v>
+      </c>
+      <c r="G393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" t="s">
+        <v>29</v>
+      </c>
+      <c r="B394" t="s">
+        <v>36</v>
+      </c>
+      <c r="C394" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394" t="n">
+        <v>200</v>
+      </c>
+      <c r="E394" t="n">
+        <v>200</v>
+      </c>
+      <c r="F394" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" t="s">
+        <v>29</v>
+      </c>
+      <c r="B395" t="s">
+        <v>36</v>
+      </c>
+      <c r="C395" t="s">
+        <v>12</v>
+      </c>
+      <c r="D395" t="n">
+        <v>200</v>
+      </c>
+      <c r="E395" t="n">
+        <v>200</v>
+      </c>
+      <c r="F395" t="b">
+        <v>1</v>
+      </c>
+      <c r="G395" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" t="s">
+        <v>29</v>
+      </c>
+      <c r="B396" t="s">
+        <v>36</v>
+      </c>
+      <c r="C396" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396" t="n">
+        <v>200</v>
+      </c>
+      <c r="E396" t="n">
+        <v>200</v>
+      </c>
+      <c r="F396" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" t="s">
+        <v>29</v>
+      </c>
+      <c r="B397" t="s">
+        <v>36</v>
+      </c>
+      <c r="C397" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397" t="n">
+        <v>200</v>
+      </c>
+      <c r="E397" t="n">
+        <v>200</v>
+      </c>
+      <c r="F397" t="b">
+        <v>0</v>
+      </c>
+      <c r="G397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" t="s">
+        <v>29</v>
+      </c>
+      <c r="B398" t="s">
+        <v>36</v>
+      </c>
+      <c r="C398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E398" t="n">
+        <v>409</v>
+      </c>
+      <c r="F398" t="s">
+        <v>31</v>
+      </c>
+      <c r="G398" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" t="s">
+        <v>29</v>
+      </c>
+      <c r="B399" t="s">
+        <v>36</v>
+      </c>
+      <c r="C399" t="s">
+        <v>18</v>
+      </c>
+      <c r="D399" t="n">
+        <v>200</v>
+      </c>
+      <c r="E399" t="n">
+        <v>200</v>
+      </c>
+      <c r="G399" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" t="s">
+        <v>7</v>
+      </c>
+      <c r="B400" t="s">
+        <v>37</v>
+      </c>
+      <c r="C400" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" t="n">
+        <v>200</v>
+      </c>
+      <c r="E400" t="n">
+        <v>200</v>
+      </c>
+      <c r="F400" t="s">
+        <v>10</v>
+      </c>
+      <c r="G400" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" t="s">
+        <v>7</v>
+      </c>
+      <c r="B401" t="s">
+        <v>37</v>
+      </c>
+      <c r="C401" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" t="n">
+        <v>200</v>
+      </c>
+      <c r="E401" t="n">
+        <v>200</v>
+      </c>
+      <c r="F401" t="b">
+        <v>1</v>
+      </c>
+      <c r="G401" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402" t="s">
+        <v>37</v>
+      </c>
+      <c r="C402" t="s">
+        <v>13</v>
+      </c>
+      <c r="D402" t="n">
+        <v>200</v>
+      </c>
+      <c r="E402" t="n">
+        <v>200</v>
+      </c>
+      <c r="F402" t="s">
+        <v>14</v>
+      </c>
+      <c r="G402" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403" t="s">
+        <v>37</v>
+      </c>
+      <c r="C403" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" t="n">
+        <v>200</v>
+      </c>
+      <c r="E403" t="n">
+        <v>200</v>
+      </c>
+      <c r="F403" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404" t="s">
+        <v>37</v>
+      </c>
+      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" t="n">
+        <v>200</v>
+      </c>
+      <c r="E404" t="n">
+        <v>200</v>
+      </c>
+      <c r="F404" t="b">
+        <v>0</v>
+      </c>
+      <c r="G404" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" t="s">
+        <v>7</v>
+      </c>
+      <c r="B405" t="s">
+        <v>37</v>
+      </c>
+      <c r="C405" t="s">
+        <v>18</v>
+      </c>
+      <c r="D405" t="n">
+        <v>200</v>
+      </c>
+      <c r="E405" t="n">
+        <v>200</v>
+      </c>
+      <c r="G405" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+      <c r="B406" t="s">
+        <v>37</v>
+      </c>
+      <c r="C406" t="s">
+        <v>9</v>
+      </c>
+      <c r="D406" t="n">
+        <v>200</v>
+      </c>
+      <c r="E406" t="n">
+        <v>200</v>
+      </c>
+      <c r="F406" t="s">
+        <v>10</v>
+      </c>
+      <c r="G406" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" t="s">
+        <v>29</v>
+      </c>
+      <c r="B407" t="s">
+        <v>37</v>
+      </c>
+      <c r="C407" t="s">
+        <v>12</v>
+      </c>
+      <c r="D407" t="n">
+        <v>200</v>
+      </c>
+      <c r="E407" t="n">
+        <v>200</v>
+      </c>
+      <c r="F407" t="b">
+        <v>1</v>
+      </c>
+      <c r="G407" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" t="s">
+        <v>29</v>
+      </c>
+      <c r="B408" t="s">
+        <v>37</v>
+      </c>
+      <c r="C408" t="s">
+        <v>15</v>
+      </c>
+      <c r="D408" t="n">
+        <v>200</v>
+      </c>
+      <c r="E408" t="n">
+        <v>200</v>
+      </c>
+      <c r="F408" t="s">
+        <v>16</v>
+      </c>
+      <c r="G408" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409" t="s">
+        <v>37</v>
+      </c>
+      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409" t="n">
+        <v>200</v>
+      </c>
+      <c r="E409" t="n">
+        <v>200</v>
+      </c>
+      <c r="F409" t="b">
+        <v>0</v>
+      </c>
+      <c r="G409" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" t="s">
+        <v>29</v>
+      </c>
+      <c r="B410" t="s">
+        <v>37</v>
+      </c>
+      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E410" t="n">
+        <v>409</v>
+      </c>
+      <c r="F410" t="s">
+        <v>31</v>
+      </c>
+      <c r="G410" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" t="s">
+        <v>29</v>
+      </c>
+      <c r="B411" t="s">
+        <v>37</v>
+      </c>
+      <c r="C411" t="s">
+        <v>18</v>
+      </c>
+      <c r="D411" t="n">
+        <v>200</v>
+      </c>
+      <c r="E411" t="n">
+        <v>200</v>
+      </c>
+      <c r="G411" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" t="s">
+        <v>7</v>
+      </c>
+      <c r="B412" t="s">
+        <v>38</v>
+      </c>
+      <c r="C412" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" t="n">
+        <v>200</v>
+      </c>
+      <c r="E412" t="n">
+        <v>200</v>
+      </c>
+      <c r="F412" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" t="s">
+        <v>7</v>
+      </c>
+      <c r="B413" t="s">
+        <v>38</v>
+      </c>
+      <c r="C413" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" t="n">
+        <v>200</v>
+      </c>
+      <c r="E413" t="n">
+        <v>200</v>
+      </c>
+      <c r="F413" t="b">
+        <v>1</v>
+      </c>
+      <c r="G413" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" t="s">
+        <v>7</v>
+      </c>
+      <c r="B414" t="s">
+        <v>38</v>
+      </c>
+      <c r="C414" t="s">
+        <v>13</v>
+      </c>
+      <c r="D414" t="n">
+        <v>200</v>
+      </c>
+      <c r="E414" t="n">
+        <v>200</v>
+      </c>
+      <c r="F414" t="s">
+        <v>14</v>
+      </c>
+      <c r="G414" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415" t="s">
+        <v>38</v>
+      </c>
+      <c r="C415" t="s">
+        <v>15</v>
+      </c>
+      <c r="D415" t="n">
+        <v>200</v>
+      </c>
+      <c r="E415" t="n">
+        <v>200</v>
+      </c>
+      <c r="F415" t="s">
+        <v>16</v>
+      </c>
+      <c r="G415" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" t="s">
+        <v>7</v>
+      </c>
+      <c r="B416" t="s">
+        <v>38</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" t="n">
+        <v>200</v>
+      </c>
+      <c r="E416" t="n">
+        <v>200</v>
+      </c>
+      <c r="F416" t="b">
+        <v>0</v>
+      </c>
+      <c r="G416" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" t="s">
+        <v>38</v>
+      </c>
+      <c r="C417" t="s">
+        <v>18</v>
+      </c>
+      <c r="D417" t="n">
+        <v>200</v>
+      </c>
+      <c r="E417" t="n">
+        <v>200</v>
+      </c>
+      <c r="G417" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" t="s">
+        <v>29</v>
+      </c>
+      <c r="B418" t="s">
+        <v>38</v>
+      </c>
+      <c r="C418" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" t="n">
+        <v>200</v>
+      </c>
+      <c r="E418" t="n">
+        <v>200</v>
+      </c>
+      <c r="F418" t="s">
+        <v>10</v>
+      </c>
+      <c r="G418" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" t="s">
+        <v>29</v>
+      </c>
+      <c r="B419" t="s">
+        <v>38</v>
+      </c>
+      <c r="C419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419" t="n">
+        <v>200</v>
+      </c>
+      <c r="E419" t="n">
+        <v>200</v>
+      </c>
+      <c r="F419" t="b">
+        <v>1</v>
+      </c>
+      <c r="G419" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" t="s">
+        <v>29</v>
+      </c>
+      <c r="B420" t="s">
+        <v>38</v>
+      </c>
+      <c r="C420" t="s">
+        <v>15</v>
+      </c>
+      <c r="D420" t="n">
+        <v>200</v>
+      </c>
+      <c r="E420" t="n">
+        <v>200</v>
+      </c>
+      <c r="F420" t="s">
+        <v>16</v>
+      </c>
+      <c r="G420" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" t="s">
+        <v>29</v>
+      </c>
+      <c r="B421" t="s">
+        <v>38</v>
+      </c>
+      <c r="C421" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421" t="n">
+        <v>200</v>
+      </c>
+      <c r="E421" t="n">
+        <v>200</v>
+      </c>
+      <c r="F421" t="b">
+        <v>0</v>
+      </c>
+      <c r="G421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" t="s">
+        <v>29</v>
+      </c>
+      <c r="B422" t="s">
+        <v>38</v>
+      </c>
+      <c r="C422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D422" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E422" t="n">
+        <v>409</v>
+      </c>
+      <c r="F422" t="s">
+        <v>31</v>
+      </c>
+      <c r="G422" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" t="s">
+        <v>29</v>
+      </c>
+      <c r="B423" t="s">
+        <v>38</v>
+      </c>
+      <c r="C423" t="s">
+        <v>18</v>
+      </c>
+      <c r="D423" t="n">
+        <v>200</v>
+      </c>
+      <c r="E423" t="n">
+        <v>200</v>
+      </c>
+      <c r="G423" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" t="s">
+        <v>7</v>
+      </c>
+      <c r="B424" t="s">
+        <v>39</v>
+      </c>
+      <c r="C424" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424" t="n">
+        <v>200</v>
+      </c>
+      <c r="E424" t="n">
+        <v>200</v>
+      </c>
+      <c r="F424" t="s">
+        <v>10</v>
+      </c>
+      <c r="G424" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" t="s">
+        <v>7</v>
+      </c>
+      <c r="B425" t="s">
+        <v>39</v>
+      </c>
+      <c r="C425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" t="n">
+        <v>200</v>
+      </c>
+      <c r="E425" t="n">
+        <v>200</v>
+      </c>
+      <c r="F425" t="b">
+        <v>1</v>
+      </c>
+      <c r="G425" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" t="s">
+        <v>7</v>
+      </c>
+      <c r="B426" t="s">
+        <v>39</v>
+      </c>
+      <c r="C426" t="s">
+        <v>13</v>
+      </c>
+      <c r="D426" t="n">
+        <v>200</v>
+      </c>
+      <c r="E426" t="n">
+        <v>200</v>
+      </c>
+      <c r="F426" t="s">
+        <v>14</v>
+      </c>
+      <c r="G426" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" t="s">
+        <v>39</v>
+      </c>
+      <c r="C427" t="s">
+        <v>15</v>
+      </c>
+      <c r="D427" t="n">
+        <v>200</v>
+      </c>
+      <c r="E427" t="n">
+        <v>200</v>
+      </c>
+      <c r="F427" t="s">
+        <v>16</v>
+      </c>
+      <c r="G427" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428" t="s">
+        <v>39</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" t="n">
+        <v>200</v>
+      </c>
+      <c r="E428" t="n">
+        <v>200</v>
+      </c>
+      <c r="F428" t="b">
+        <v>0</v>
+      </c>
+      <c r="G428" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429" t="s">
+        <v>39</v>
+      </c>
+      <c r="C429" t="s">
+        <v>18</v>
+      </c>
+      <c r="D429" t="n">
+        <v>200</v>
+      </c>
+      <c r="E429" t="n">
+        <v>200</v>
+      </c>
+      <c r="G429" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B430" t="s">
+        <v>40</v>
+      </c>
+      <c r="C430" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" t="n">
+        <v>200</v>
+      </c>
+      <c r="E430" t="n">
+        <v>200</v>
+      </c>
+      <c r="F430" t="s">
+        <v>10</v>
+      </c>
+      <c r="G430" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B431" t="s">
+        <v>40</v>
+      </c>
+      <c r="C431" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" t="n">
+        <v>200</v>
+      </c>
+      <c r="E431" t="n">
+        <v>200</v>
+      </c>
+      <c r="F431" t="b">
+        <v>1</v>
+      </c>
+      <c r="G431" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" t="s">
+        <v>7</v>
+      </c>
+      <c r="B432" t="s">
+        <v>40</v>
+      </c>
+      <c r="C432" t="s">
+        <v>13</v>
+      </c>
+      <c r="D432" t="n">
+        <v>200</v>
+      </c>
+      <c r="E432" t="n">
+        <v>200</v>
+      </c>
+      <c r="F432" t="s">
+        <v>14</v>
+      </c>
+      <c r="G432" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" t="s">
+        <v>7</v>
+      </c>
+      <c r="B433" t="s">
+        <v>40</v>
+      </c>
+      <c r="C433" t="s">
+        <v>15</v>
+      </c>
+      <c r="D433" t="n">
+        <v>200</v>
+      </c>
+      <c r="E433" t="n">
+        <v>200</v>
+      </c>
+      <c r="F433" t="s">
+        <v>16</v>
+      </c>
+      <c r="G433" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B434" t="s">
+        <v>40</v>
+      </c>
+      <c r="C434" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" t="n">
+        <v>200</v>
+      </c>
+      <c r="E434" t="n">
+        <v>200</v>
+      </c>
+      <c r="F434" t="b">
+        <v>0</v>
+      </c>
+      <c r="G434" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" t="s">
+        <v>7</v>
+      </c>
+      <c r="B435" t="s">
+        <v>40</v>
+      </c>
+      <c r="C435" t="s">
+        <v>18</v>
+      </c>
+      <c r="D435" t="n">
+        <v>200</v>
+      </c>
+      <c r="E435" t="n">
+        <v>200</v>
+      </c>
+      <c r="G435" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" t="s">
+        <v>29</v>
+      </c>
+      <c r="B436" t="s">
+        <v>41</v>
+      </c>
+      <c r="C436" t="s">
+        <v>9</v>
+      </c>
+      <c r="D436" t="n">
+        <v>200</v>
+      </c>
+      <c r="E436" t="n">
+        <v>200</v>
+      </c>
+      <c r="F436" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" t="s">
+        <v>29</v>
+      </c>
+      <c r="B437" t="s">
+        <v>41</v>
+      </c>
+      <c r="C437" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437" t="n">
+        <v>200</v>
+      </c>
+      <c r="E437" t="n">
+        <v>200</v>
+      </c>
+      <c r="F437" t="b">
+        <v>1</v>
+      </c>
+      <c r="G437" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" t="s">
+        <v>29</v>
+      </c>
+      <c r="B438" t="s">
+        <v>41</v>
+      </c>
+      <c r="C438" t="s">
+        <v>15</v>
+      </c>
+      <c r="D438" t="n">
+        <v>200</v>
+      </c>
+      <c r="E438" t="n">
+        <v>200</v>
+      </c>
+      <c r="F438" t="s">
+        <v>16</v>
+      </c>
+      <c r="G438" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" t="s">
+        <v>29</v>
+      </c>
+      <c r="B439" t="s">
+        <v>41</v>
+      </c>
+      <c r="C439" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" t="n">
+        <v>200</v>
+      </c>
+      <c r="E439" t="n">
+        <v>200</v>
+      </c>
+      <c r="F439" t="b">
+        <v>0</v>
+      </c>
+      <c r="G439" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" t="s">
+        <v>29</v>
+      </c>
+      <c r="B440" t="s">
+        <v>41</v>
+      </c>
+      <c r="C440" t="s">
+        <v>13</v>
+      </c>
+      <c r="D440" t="n">
+        <v>-2002</v>
+      </c>
+      <c r="E440" t="n">
+        <v>409</v>
+      </c>
+      <c r="F440" t="s">
+        <v>31</v>
+      </c>
+      <c r="G440" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" t="s">
+        <v>29</v>
+      </c>
+      <c r="B441" t="s">
+        <v>41</v>
+      </c>
+      <c r="C441" t="s">
+        <v>18</v>
+      </c>
+      <c r="D441" t="n">
+        <v>200</v>
+      </c>
+      <c r="E441" t="n">
+        <v>200</v>
+      </c>
+      <c r="G441" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" t="s">
+        <v>42</v>
+      </c>
+      <c r="B442" t="s">
+        <v>43</v>
+      </c>
+      <c r="C442" t="s">
+        <v>9</v>
+      </c>
+      <c r="D442" t="n">
+        <v>200</v>
+      </c>
+      <c r="E442" t="n">
+        <v>200</v>
+      </c>
+      <c r="F442" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" t="s">
+        <v>42</v>
+      </c>
+      <c r="B443" t="s">
+        <v>43</v>
+      </c>
+      <c r="C443" t="s">
+        <v>18</v>
+      </c>
+      <c r="D443" t="n">
+        <v>200</v>
+      </c>
+      <c r="E443" t="n">
+        <v>200</v>
+      </c>
+      <c r="F443" t="s"/>
+      <c r="G443" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TestReport/TestReport.xlsx
+++ b/TestReport/TestReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>CaseNumber</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>20170221_13:33:59</t>
+  </si>
+  <si>
+    <t>20170221_16:56:10</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G443"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G10:G11"/>
@@ -10488,9 +10491,144 @@
       <c r="E443" t="n">
         <v>200</v>
       </c>
-      <c r="F443" t="s"/>
       <c r="G443" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" t="s">
+        <v>7</v>
+      </c>
+      <c r="B444" t="s">
+        <v>44</v>
+      </c>
+      <c r="C444" t="s">
+        <v>9</v>
+      </c>
+      <c r="D444" t="n">
+        <v>200</v>
+      </c>
+      <c r="E444" t="n">
+        <v>200</v>
+      </c>
+      <c r="F444" t="s">
+        <v>10</v>
+      </c>
+      <c r="G444" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" t="s">
+        <v>7</v>
+      </c>
+      <c r="B445" t="s">
+        <v>44</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" t="n">
+        <v>200</v>
+      </c>
+      <c r="E445" t="n">
+        <v>200</v>
+      </c>
+      <c r="F445" t="b">
+        <v>1</v>
+      </c>
+      <c r="G445" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B446" t="s">
+        <v>44</v>
+      </c>
+      <c r="C446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446" t="n">
+        <v>200</v>
+      </c>
+      <c r="E446" t="n">
+        <v>200</v>
+      </c>
+      <c r="F446" t="s">
+        <v>14</v>
+      </c>
+      <c r="G446" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" t="s">
+        <v>44</v>
+      </c>
+      <c r="C447" t="s">
+        <v>15</v>
+      </c>
+      <c r="D447" t="n">
+        <v>200</v>
+      </c>
+      <c r="E447" t="n">
+        <v>200</v>
+      </c>
+      <c r="F447" t="s">
+        <v>16</v>
+      </c>
+      <c r="G447" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B448" t="s">
+        <v>44</v>
+      </c>
+      <c r="C448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" t="n">
+        <v>200</v>
+      </c>
+      <c r="E448" t="n">
+        <v>200</v>
+      </c>
+      <c r="F448" t="b">
+        <v>0</v>
+      </c>
+      <c r="G448" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" t="s">
+        <v>44</v>
+      </c>
+      <c r="C449" t="s">
+        <v>18</v>
+      </c>
+      <c r="D449" t="n">
+        <v>200</v>
+      </c>
+      <c r="E449" t="n">
+        <v>200</v>
+      </c>
+      <c r="F449" t="s"/>
+      <c r="G449" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
